--- a/data/fig3/QE_FC.xlsx
+++ b/data/fig3/QE_FC.xlsx
@@ -476,7 +476,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1606195321082139</v>
+        <v>-0.1606195321082146</v>
       </c>
       <c r="D2" t="n">
         <v>-0.3778599552226165</v>
@@ -495,7 +495,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00315722861728536</v>
+        <v>0.003157228617280885</v>
       </c>
       <c r="D3" t="n">
         <v>-0.01585684310637342</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02742848852564552</v>
+        <v>0.02742848852564395</v>
       </c>
       <c r="D4" t="n">
         <v>0.2187861143647475</v>
@@ -552,7 +552,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08197235337142825</v>
+        <v>0.08197235337143309</v>
       </c>
       <c r="D6" t="n">
         <v>0.129396411256218</v>
@@ -571,7 +571,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.09278729862958705</v>
+        <v>-0.09278729862958672</v>
       </c>
       <c r="D7" t="n">
         <v>-0.05759575159024535</v>
@@ -590,7 +590,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04099419396951529</v>
+        <v>0.04099419396951125</v>
       </c>
       <c r="D8" t="n">
         <v>0.05301724039535378</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.07234011325331796</v>
+        <v>-0.07234011325331846</v>
       </c>
       <c r="D9" t="n">
         <v>-0.02970393265388772</v>
@@ -628,7 +628,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05541251611030846</v>
+        <v>0.05541251611031524</v>
       </c>
       <c r="D10" t="n">
         <v>0.2390879134514279</v>
@@ -647,7 +647,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1154154251491957</v>
+        <v>-0.115415425149195</v>
       </c>
       <c r="D11" t="n">
         <v>-0.1884605589557095</v>
@@ -666,7 +666,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08963826497402694</v>
+        <v>-0.08963826497402608</v>
       </c>
       <c r="D12" t="n">
         <v>-0.2212927116672574</v>
@@ -685,7 +685,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1229600190622449</v>
+        <v>0.1229600190622396</v>
       </c>
       <c r="D13" t="n">
         <v>0.268923297713986</v>
@@ -704,7 +704,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08994726762982833</v>
+        <v>0.08994726762983464</v>
       </c>
       <c r="D14" t="n">
         <v>0.1280984213820502</v>
@@ -723,7 +723,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2722311444003945</v>
+        <v>-0.2722311444003943</v>
       </c>
       <c r="D15" t="n">
         <v>-0.001228515441465395</v>
@@ -742,7 +742,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1049079757097486</v>
+        <v>-0.104907975709749</v>
       </c>
       <c r="D16" t="n">
         <v>-0.1937328418393724</v>
@@ -761,7 +761,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1951952910995475</v>
+        <v>-0.1951952910995479</v>
       </c>
       <c r="D17" t="n">
         <v>-0.2146009289686749</v>
@@ -780,7 +780,7 @@
         <v>-0.3770696490798233</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4958981999652583</v>
+        <v>-0.4958981999652581</v>
       </c>
       <c r="D18" t="n">
         <v>-3.314455834962253</v>
@@ -818,7 +818,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04540639907685434</v>
+        <v>0.04540639907684969</v>
       </c>
       <c r="D20" t="n">
         <v>0.5932819758901828</v>
@@ -837,7 +837,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004073091059839708</v>
+        <v>0.004073091059844819</v>
       </c>
       <c r="D21" t="n">
         <v>0.01497047825819642</v>
@@ -856,7 +856,7 @@
         <v>-0.3584539709124763</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3526865768192028</v>
+        <v>-0.3526865768192023</v>
       </c>
       <c r="D22" t="n">
         <v>-0.3628572674202156</v>
@@ -875,7 +875,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.02221735535865218</v>
+        <v>-0.0222173553586525</v>
       </c>
       <c r="E23" t="n">
         <v>0.1145186016371676</v>
@@ -891,7 +891,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1454271438887561</v>
+        <v>-0.1454271438887558</v>
       </c>
       <c r="D24" t="n">
         <v>0.1629779286742066</v>
@@ -929,7 +929,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.004497969247578918</v>
+        <v>-0.004497969247578596</v>
       </c>
       <c r="D26" t="n">
         <v>0.02339133041504776</v>
@@ -948,7 +948,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4432771014653611</v>
+        <v>0.4432771014653564</v>
       </c>
       <c r="D27" t="n">
         <v>0.7146839265042194</v>
@@ -967,7 +967,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1344344567210454</v>
+        <v>-0.134434456721045</v>
       </c>
       <c r="D28" t="n">
         <v>-2.704175523897629</v>
@@ -986,7 +986,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.009958083056035226</v>
+        <v>-0.009958083056034904</v>
       </c>
       <c r="D29" t="n">
         <v>0.09592253985454634</v>
@@ -1005,7 +1005,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C30" t="n">
-        <v>1.252151158860726</v>
+        <v>1.252151158860728</v>
       </c>
       <c r="D30" t="n">
         <v>-0.1076042556607757</v>
@@ -1024,7 +1024,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0870524404892556</v>
+        <v>-0.08705244048925527</v>
       </c>
       <c r="D31" t="n">
         <v>-0.0889056593505942</v>
@@ -1043,7 +1043,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02725311428784213</v>
+        <v>0.02725311428783867</v>
       </c>
       <c r="D32" t="n">
         <v>0.04292172631431577</v>
@@ -1062,7 +1062,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1518817515011719</v>
+        <v>0.1518817515011757</v>
       </c>
       <c r="D33" t="n">
         <v>-0.06054512780427899</v>
@@ -1119,7 +1119,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9663217547556125</v>
+        <v>-0.9663217547556129</v>
       </c>
       <c r="D36" t="n">
         <v>-0.05694699321525569</v>
@@ -1138,7 +1138,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.09033936400416855</v>
+        <v>-0.0903393640041682</v>
       </c>
       <c r="D37" t="n">
         <v>-0.2824789506657495</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.007742135184010425</v>
+        <v>0.007742135184012656</v>
       </c>
       <c r="D38" t="n">
         <v>-0.1354366222145889</v>
@@ -1176,7 +1176,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C39" t="n">
-        <v>0.05952578563769523</v>
+        <v>0.05952578563770015</v>
       </c>
       <c r="D39" t="n">
         <v>0.1432132373605091</v>
@@ -1195,7 +1195,7 @@
         <v>-0.2863041851566411</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2393551552570805</v>
+        <v>-0.2393551552570799</v>
       </c>
       <c r="D40" t="n">
         <v>-0.3843275776001617</v>
@@ -1214,7 +1214,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06874426465002551</v>
+        <v>0.06874426465002337</v>
       </c>
       <c r="D41" t="n">
         <v>0.2841094350388946</v>
@@ -1233,7 +1233,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03613668091868824</v>
+        <v>0.03613668091868261</v>
       </c>
       <c r="D42" t="n">
         <v>0.2238145989496808</v>
@@ -1252,7 +1252,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.006047032410276286</v>
+        <v>-0.00604703241027693</v>
       </c>
       <c r="D43" t="n">
         <v>0.0620272858744708</v>
@@ -1271,7 +1271,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.04333870018075677</v>
+        <v>-0.04333870018075743</v>
       </c>
       <c r="D44" t="n">
         <v>0.1647000668089995</v>
@@ -1290,7 +1290,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0763662640494174</v>
+        <v>-0.07636626404941775</v>
       </c>
       <c r="D45" t="n">
         <v>-0.1586604580294152</v>
@@ -1309,7 +1309,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01186975830665701</v>
+        <v>0.01186975830665542</v>
       </c>
       <c r="D46" t="n">
         <v>-0.3529408097316691</v>
@@ -1328,7 +1328,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1483412430581478</v>
+        <v>-0.1483412430581476</v>
       </c>
       <c r="D47" t="n">
         <v>-0.006958592987478163</v>
@@ -1347,7 +1347,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.03864816890083237</v>
+        <v>-0.03864816890083286</v>
       </c>
       <c r="D48" t="n">
         <v>-0.2371822504932227</v>
@@ -1366,7 +1366,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.03593579419233403</v>
+        <v>-0.03593579419233469</v>
       </c>
       <c r="D49" t="n">
         <v>-0.03297964513671365</v>
@@ -1385,7 +1385,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06262923537938644</v>
+        <v>0.06262923537938707</v>
       </c>
       <c r="D50" t="n">
         <v>0.1861677315434229</v>
@@ -1404,7 +1404,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1463708643372038</v>
+        <v>0.1463708643372047</v>
       </c>
       <c r="D51" t="n">
         <v>0.1841532167194875</v>
@@ -1423,7 +1423,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1281751925342321</v>
+        <v>-0.1281751925342319</v>
       </c>
       <c r="D52" t="n">
         <v>-0.1263074161554317</v>
@@ -1518,7 +1518,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.004117566808660145</v>
+        <v>-0.004117566808660466</v>
       </c>
       <c r="D57" t="n">
         <v>-0.03369646379257252</v>
@@ -1537,7 +1537,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.02203303423544745</v>
+        <v>-0.02203303423544696</v>
       </c>
       <c r="D58" t="n">
         <v>-0.002242605537800157</v>
@@ -1556,7 +1556,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.2841616250033741</v>
+        <v>-0.2841616250033733</v>
       </c>
       <c r="D59" t="n">
         <v>-0.1560895519713557</v>
@@ -1575,7 +1575,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1995040433275246</v>
+        <v>-0.1995040433275252</v>
       </c>
       <c r="D60" t="n">
         <v>-0.1266806147134912</v>
@@ -1594,7 +1594,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04143799821808575</v>
+        <v>0.04143799821808264</v>
       </c>
       <c r="D61" t="n">
         <v>-0.04500306471974564</v>
@@ -1613,7 +1613,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.1045112756538384</v>
+        <v>-0.1045112756538377</v>
       </c>
       <c r="D62" t="n">
         <v>-0.1251490427848762</v>
@@ -1632,7 +1632,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.02737822361778484</v>
+        <v>-0.02737822361778517</v>
       </c>
       <c r="D63" t="n">
         <v>0.5269229941771307</v>
@@ -1651,7 +1651,7 @@
         <v>-0.2863041851566411</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.08816903092817352</v>
+        <v>-0.08816903092817319</v>
       </c>
       <c r="D64" t="n">
         <v>0.03590116212265067</v>
@@ -1670,7 +1670,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C65" t="n">
-        <v>0.02826385221872154</v>
+        <v>0.0282638522187206</v>
       </c>
       <c r="D65" t="n">
         <v>-0.006436266884380155</v>
@@ -1708,7 +1708,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.0007456063724024068</v>
+        <v>-0.0007456063724020863</v>
       </c>
       <c r="D67" t="n">
         <v>0.1747602716819848</v>
@@ -1746,7 +1746,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2181635946829899</v>
+        <v>0.2181635946829874</v>
       </c>
       <c r="D69" t="n">
         <v>0.3342555325267715</v>
@@ -1784,7 +1784,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08804260688957542</v>
+        <v>0.08804260688957753</v>
       </c>
       <c r="D71" t="n">
         <v>0.1119275340921373</v>
@@ -1803,7 +1803,7 @@
         <v>-0.4941090702700427</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.6835328869071459</v>
+        <v>-0.6835328869071456</v>
       </c>
       <c r="D72" t="n">
         <v>-0.59546089272775</v>
@@ -1822,7 +1822,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.03928988361296289</v>
+        <v>-0.03928988361296323</v>
       </c>
       <c r="D73" t="n">
         <v>-0.02750204463735834</v>
@@ -1841,7 +1841,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.1601265205873973</v>
+        <v>-0.1601265205873978</v>
       </c>
       <c r="D74" t="n">
         <v>-0.1347535215042997</v>
@@ -1860,7 +1860,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.006081194001790765</v>
+        <v>-0.006081194001790282</v>
       </c>
       <c r="D75" t="n">
         <v>-0.02931973574444096</v>
@@ -1879,7 +1879,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1953128180499795</v>
+        <v>0.1953128180499829</v>
       </c>
       <c r="D76" t="n">
         <v>0.1982660376938827</v>
@@ -1898,7 +1898,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00428719712999838</v>
+        <v>0.004287197130004129</v>
       </c>
       <c r="D77" t="n">
         <v>0.01304328040513769</v>
@@ -1917,7 +1917,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.06495638298284584</v>
+        <v>-0.06495638298284551</v>
       </c>
       <c r="D78" t="n">
         <v>-0.06714817910060691</v>
@@ -1936,7 +1936,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.2420714559736329</v>
+        <v>-0.2420714559736333</v>
       </c>
       <c r="D79" t="n">
         <v>-0.3136386671964685</v>
@@ -1955,7 +1955,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.05442010105568301</v>
+        <v>-0.05442010105568234</v>
       </c>
       <c r="D80" t="n">
         <v>0.2109568522358502</v>
@@ -1974,7 +1974,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1132734163285746</v>
+        <v>-0.1132734163285751</v>
       </c>
       <c r="D81" t="n">
         <v>-0.1127644466297661</v>
@@ -2012,7 +2012,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0648232589104632</v>
+        <v>0.06482325891045891</v>
       </c>
       <c r="D83" t="n">
         <v>0.003097405635078995</v>
@@ -2050,7 +2050,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.07678097540396316</v>
+        <v>-0.07678097540396366</v>
       </c>
       <c r="D85" t="n">
         <v>-0.1204614836582397</v>
@@ -2069,7 +2069,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C86" t="n">
-        <v>0.07365704172530899</v>
+        <v>0.07365704172530563</v>
       </c>
       <c r="D86" t="n">
         <v>0.1564267454040544</v>
@@ -2107,7 +2107,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.06000838491036684</v>
+        <v>-0.06000838491036633</v>
       </c>
       <c r="D88" t="n">
         <v>-0.1120223307395462</v>
@@ -2145,7 +2145,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.09514337489740754</v>
+        <v>-0.09514337489740721</v>
       </c>
       <c r="D90" t="n">
         <v>0.04774128351452948</v>
@@ -2164,7 +2164,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02920649847249872</v>
+        <v>0.02920649847250406</v>
       </c>
       <c r="D91" t="n">
         <v>-0.03897204446527808</v>
@@ -2183,7 +2183,7 @@
         <v>0.2986583155645152</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2417503920618319</v>
+        <v>0.2417503920618325</v>
       </c>
       <c r="D92" t="n">
         <v>0.3489558219667304</v>
@@ -2202,7 +2202,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1783312797949761</v>
+        <v>-0.1783312797949767</v>
       </c>
       <c r="D93" t="n">
         <v>-0.156510971185477</v>
@@ -2221,7 +2221,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.08246216019197299</v>
+        <v>-0.08246216019197367</v>
       </c>
       <c r="D94" t="n">
         <v>-0.09232736435160346</v>
@@ -2240,7 +2240,7 @@
         <v>-0.4941090702700427</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.240800263294995</v>
+        <v>-0.2408002632949944</v>
       </c>
       <c r="D95" t="n">
         <v>-0.456227365912757</v>
@@ -2278,7 +2278,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.06380758494982917</v>
+        <v>-0.06380758494982901</v>
       </c>
       <c r="D97" t="n">
         <v>-0.2306589058560747</v>
@@ -2297,7 +2297,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01196587100878511</v>
+        <v>0.01196587100879115</v>
       </c>
       <c r="D98" t="n">
         <v>0.7108563984064434</v>
@@ -2316,7 +2316,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.08971491003883261</v>
+        <v>-0.08971491003883245</v>
       </c>
       <c r="D99" t="n">
         <v>-0.04732001123302665</v>
@@ -2351,7 +2351,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.04031107294952439</v>
+        <v>-0.04031107294952405</v>
       </c>
       <c r="D101" t="n">
         <v>0.02335771500284195</v>
@@ -2370,7 +2370,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02467899116913835</v>
+        <v>0.02467899116914465</v>
       </c>
       <c r="D102" t="n">
         <v>-0.0542655601825273</v>
@@ -2389,7 +2389,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1442084405432361</v>
+        <v>0.144208440543235</v>
       </c>
       <c r="D103" t="n">
         <v>0.127000111014703</v>
@@ -2408,7 +2408,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C104" t="n">
-        <v>0.02564267763569389</v>
+        <v>0.02564267763570081</v>
       </c>
       <c r="D104" t="n">
         <v>0.02534888347678229</v>
@@ -2427,7 +2427,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1268961043854081</v>
+        <v>0.1268961043854145</v>
       </c>
       <c r="D105" t="n">
         <v>-0.0771267098421855</v>
@@ -2484,7 +2484,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1996625564359727</v>
+        <v>-0.1996625564359725</v>
       </c>
       <c r="D108" t="n">
         <v>0.05879190212183164</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.02285325859488279</v>
+        <v>-0.0228532585948823</v>
       </c>
       <c r="D109" t="n">
         <v>-0.00569360597351398</v>
@@ -2522,7 +2522,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.002584532164794806</v>
+        <v>-0.002584532164794325</v>
       </c>
       <c r="D110" t="n">
         <v>0.2995192339943193</v>
@@ -2541,7 +2541,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C111" t="n">
-        <v>0.07412815638739846</v>
+        <v>0.07412815638739907</v>
       </c>
       <c r="D111" t="n">
         <v>0.2016164170568782</v>
@@ -2560,7 +2560,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.06223224826779259</v>
+        <v>-0.06223224826779226</v>
       </c>
       <c r="D112" t="n">
         <v>0.1004804258741307</v>
@@ -2614,7 +2614,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C115" t="n">
-        <v>0.03822158926974579</v>
+        <v>0.03822158926975234</v>
       </c>
       <c r="D115" t="n">
         <v>0.2318713816702141</v>
@@ -2652,7 +2652,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.03901735330030949</v>
+        <v>-0.03901735330031015</v>
       </c>
       <c r="D117" t="n">
         <v>0.4787662774894603</v>
@@ -2671,7 +2671,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1199725600793527</v>
+        <v>0.1199725600793586</v>
       </c>
       <c r="D118" t="n">
         <v>0.1336195715223095</v>
@@ -2709,7 +2709,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.02762362884293415</v>
+        <v>-0.02762362884293448</v>
       </c>
       <c r="D120" t="n">
         <v>-0.2741789470875123</v>
@@ -2728,7 +2728,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C121" t="n">
-        <v>0.02267014295235526</v>
+        <v>0.02267014295234895</v>
       </c>
       <c r="D121" t="n">
         <v>0.087371874698232</v>
@@ -2747,7 +2747,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.237156681435184</v>
+        <v>-0.2371566814351838</v>
       </c>
       <c r="D122" t="n">
         <v>-0.3691915820293947</v>
@@ -2766,7 +2766,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C123" t="n">
-        <v>0.07748356660039485</v>
+        <v>0.0774835666003906</v>
       </c>
       <c r="D123" t="n">
         <v>0.9169864951903808</v>
@@ -2785,7 +2785,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01659380428629043</v>
+        <v>0.01659380428629486</v>
       </c>
       <c r="D124" t="n">
         <v>0.1446639128806289</v>
@@ -2804,7 +2804,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1229380790729179</v>
+        <v>0.1229380790729129</v>
       </c>
       <c r="D125" t="n">
         <v>-0.05756074223682906</v>
@@ -2823,7 +2823,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.03290095863081746</v>
+        <v>-0.03290095863081795</v>
       </c>
       <c r="D126" t="n">
         <v>0.07036695533019112</v>
@@ -2842,7 +2842,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C127" t="n">
-        <v>0.003664697529696954</v>
+        <v>0.00366469752970015</v>
       </c>
       <c r="D127" t="n">
         <v>0.006125709639733119</v>
@@ -2861,7 +2861,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.1047701900683471</v>
+        <v>-0.1047701900683464</v>
       </c>
       <c r="D128" t="n">
         <v>0.07098016490449167</v>
@@ -2899,7 +2899,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.08305020441674905</v>
+        <v>-0.08305020441674855</v>
       </c>
       <c r="D130" t="n">
         <v>-0.2431889775069286</v>
@@ -2918,7 +2918,7 @@
         <v>0.5160151470036647</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4383072786016911</v>
+        <v>0.4383072786016896</v>
       </c>
       <c r="D131" t="n">
         <v>5.602559322674468</v>
@@ -2937,7 +2937,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.2231620377411695</v>
+        <v>-0.2231620377411688</v>
       </c>
       <c r="D132" t="n">
         <v>-0.1147954919031443</v>
@@ -2956,7 +2956,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C133" t="n">
-        <v>0.05546603517501957</v>
+        <v>0.05546603517501464</v>
       </c>
       <c r="D133" t="n">
         <v>0.3723309746653428</v>
@@ -2975,7 +2975,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1111938787352895</v>
+        <v>0.1111938787352951</v>
       </c>
       <c r="D134" t="n">
         <v>0.05946591832918818</v>
@@ -3013,7 +3013,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C136" t="n">
-        <v>0.04664004570806548</v>
+        <v>0.04664004570806238</v>
       </c>
       <c r="D136" t="n">
         <v>0.09517077208356242</v>
@@ -3032,7 +3032,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C137" t="n">
-        <v>0.01220472025966813</v>
+        <v>0.0122047202596694</v>
       </c>
       <c r="D137" t="n">
         <v>0.1430461564299373</v>
@@ -3051,7 +3051,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.1592061369527636</v>
+        <v>-0.1592061369527633</v>
       </c>
       <c r="D138" t="n">
         <v>0.1152384622643635</v>
@@ -3070,7 +3070,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C139" t="n">
-        <v>0.100907538706088</v>
+        <v>0.1009075387060877</v>
       </c>
       <c r="D139" t="n">
         <v>0.2450912257255787</v>
@@ -3089,7 +3089,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C140" t="n">
-        <v>0.09048738549202939</v>
+        <v>0.09048738549202398</v>
       </c>
       <c r="D140" t="n">
         <v>-0.05706318189569578</v>
@@ -3108,7 +3108,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.04937686712711865</v>
+        <v>-0.04937686712711832</v>
       </c>
       <c r="D141" t="n">
         <v>0.07341888675444184</v>
@@ -3127,7 +3127,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01756853260391511</v>
+        <v>0.01756853260390941</v>
       </c>
       <c r="D142" t="n">
         <v>-0.01673466373453156</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0376064869078615</v>
+        <v>0.03760648690785869</v>
       </c>
       <c r="D143" t="n">
         <v>-0.03031806349723527</v>
@@ -3165,7 +3165,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C144" t="n">
-        <v>0.09685380654543073</v>
+        <v>0.09685380654542475</v>
       </c>
       <c r="D144" t="n">
         <v>-0.03636696329050992</v>
@@ -3184,7 +3184,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C145" t="n">
-        <v>0.03132292017789496</v>
+        <v>0.03132292017789966</v>
       </c>
       <c r="D145" t="n">
         <v>0.02442742126938056</v>
@@ -3203,7 +3203,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.08846790362033637</v>
+        <v>-0.0884679036203367</v>
       </c>
       <c r="D146" t="n">
         <v>-0.06767603399293076</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.05692134908450076</v>
+        <v>-0.05692134908450109</v>
       </c>
       <c r="D147" t="n">
         <v>-0.1720015548198424</v>
@@ -3241,7 +3241,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2112373047307035</v>
+        <v>-0.2112373047307039</v>
       </c>
       <c r="D148" t="n">
         <v>-0.2870622097801155</v>
@@ -3260,7 +3260,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.08690806522316508</v>
+        <v>-0.0869080652231644</v>
       </c>
       <c r="D149" t="n">
         <v>-0.2764457156715853</v>
@@ -3279,14 +3279,11 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C150" t="n">
-        <v>0.03881924889052788</v>
+        <v>0.03881924889053193</v>
       </c>
       <c r="D150" t="n">
         <v>-0.01244541499244807</v>
       </c>
-      <c r="E150" t="n">
-        <v>0.06818605305775788</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3298,7 +3295,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C151" t="n">
-        <v>0.004665488543307981</v>
+        <v>0.004665488543306704</v>
       </c>
       <c r="E151" t="n">
         <v>0.01532317843183259</v>
@@ -3314,7 +3311,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C152" t="n">
-        <v>0.09376982785958972</v>
+        <v>0.09376982785959362</v>
       </c>
       <c r="D152" t="n">
         <v>0.0176544376086588</v>
@@ -3333,7 +3330,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.07522333396184101</v>
+        <v>-0.07522333396184067</v>
       </c>
       <c r="D153" t="n">
         <v>0.4258426062723584</v>
@@ -3352,7 +3349,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.07675031869466489</v>
+        <v>-0.07675031869466541</v>
       </c>
       <c r="D154" t="n">
         <v>-0.268970821698433</v>
@@ -3387,7 +3384,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C156" t="n">
-        <v>0.137646417190311</v>
+        <v>0.1376464171903139</v>
       </c>
       <c r="D156" t="n">
         <v>0.1598502295496348</v>
@@ -3406,7 +3403,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01723912808058502</v>
+        <v>0.01723912808058723</v>
       </c>
       <c r="D157" t="n">
         <v>0.1759132540596288</v>
@@ -3425,7 +3422,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.06972016022745284</v>
+        <v>-0.06972016022745334</v>
       </c>
       <c r="D158" t="n">
         <v>-0.1366451376689768</v>
@@ -3444,7 +3441,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.06666485613431772</v>
+        <v>-0.06666485613431788</v>
       </c>
       <c r="D159" t="n">
         <v>-0.03115413898653206</v>
@@ -3463,7 +3460,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.08714680343997487</v>
+        <v>-0.08714680343997555</v>
       </c>
       <c r="D160" t="n">
         <v>-0.1027096036265867</v>
@@ -3482,7 +3479,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01677532724422503</v>
+        <v>0.0167753272442187</v>
       </c>
       <c r="D161" t="n">
         <v>0.08314922922083351</v>
@@ -3501,7 +3498,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1005852078122173</v>
+        <v>0.1005852078122185</v>
       </c>
       <c r="D162" t="n">
         <v>0.09891196671527006</v>
@@ -3520,7 +3517,7 @@
         <v>0.3785116232537298</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2145915605976836</v>
+        <v>0.2145915605976877</v>
       </c>
       <c r="D163" t="n">
         <v>0.3203133663342146</v>
@@ -3539,7 +3536,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.09475775007282553</v>
+        <v>-0.09475775007282519</v>
       </c>
       <c r="D164" t="n">
         <v>-0.1794925074860978</v>
@@ -3558,7 +3555,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C165" t="n">
-        <v>0.05035145936376852</v>
+        <v>0.05035145936376882</v>
       </c>
       <c r="D165" t="n">
         <v>0.01615812748127551</v>
@@ -3577,7 +3574,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.05947868856036109</v>
+        <v>-0.05947868856036176</v>
       </c>
       <c r="D166" t="n">
         <v>-0.07137359627939427</v>
@@ -3596,7 +3593,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.1536402216959643</v>
+        <v>-0.1536402216959641</v>
       </c>
       <c r="D167" t="n">
         <v>-0.1455391826111519</v>
@@ -3634,7 +3631,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C169" t="n">
-        <v>0.05842455108812614</v>
+        <v>0.05842455108812245</v>
       </c>
       <c r="D169" t="n">
         <v>0.1034293998031829</v>
@@ -3653,7 +3650,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.2215198555824821</v>
+        <v>-0.2215198555824817</v>
       </c>
       <c r="D170" t="n">
         <v>-0.2088030980966447</v>
@@ -3672,7 +3669,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C171" t="n">
-        <v>0.01157651036883885</v>
+        <v>0.0115765103688452</v>
       </c>
       <c r="D171" t="n">
         <v>0.2700843513445553</v>
@@ -3691,7 +3688,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C172" t="n">
-        <v>0.03674074956968347</v>
+        <v>0.0367407495696766</v>
       </c>
       <c r="D172" t="n">
         <v>0.3234609605859809</v>
@@ -3710,7 +3707,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01939870860750932</v>
+        <v>0.01939870860751627</v>
       </c>
       <c r="D173" t="n">
         <v>0.02118574153162793</v>
@@ -3729,7 +3726,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C174" t="n">
-        <v>0.05585146361783965</v>
+        <v>0.0558514636178452</v>
       </c>
       <c r="D174" t="n">
         <v>0.2916268699153248</v>
@@ -3764,7 +3761,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.09942075897513289</v>
+        <v>-0.09942075897513322</v>
       </c>
       <c r="D176" t="n">
         <v>0.06905897363702733</v>
@@ -3783,7 +3780,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.1140388722064783</v>
+        <v>-0.1140388722064786</v>
       </c>
       <c r="D177" t="n">
         <v>-0.1269886300491433</v>
@@ -3802,7 +3799,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.1111683139596068</v>
+        <v>-0.1111683139596075</v>
       </c>
       <c r="D178" t="n">
         <v>-0.0589471052924013</v>
@@ -3821,7 +3818,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.06543191351852941</v>
+        <v>-0.06543191351853009</v>
       </c>
       <c r="D179" t="n">
         <v>-0.01694975130984093</v>
@@ -3840,7 +3837,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C180" t="n">
-        <v>0.2993761132856099</v>
+        <v>0.299376113285608</v>
       </c>
       <c r="D180" t="n">
         <v>0.05258920410740593</v>
@@ -3859,7 +3856,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.05732062277872017</v>
+        <v>-0.05732062277871967</v>
       </c>
       <c r="D181" t="n">
         <v>-0.0230324000788332</v>
@@ -3878,7 +3875,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.06954648447145145</v>
+        <v>-0.06954648447145112</v>
       </c>
       <c r="D182" t="n">
         <v>-0.7918502928782478</v>
@@ -3897,7 +3894,7 @@
         <v>-0.4344028241457749</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.4482203108514137</v>
+        <v>-0.4482203108514141</v>
       </c>
       <c r="D183" t="n">
         <v>-0.5304637278713488</v>
@@ -3935,7 +3932,7 @@
         <v>-0.2863041851566411</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.03642923644097263</v>
+        <v>-0.03642923644097329</v>
       </c>
       <c r="D185" t="n">
         <v>-2.588155649858556</v>
@@ -3954,7 +3951,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C186" t="n">
-        <v>0.05605052936117731</v>
+        <v>0.05605052936118378</v>
       </c>
       <c r="D186" t="n">
         <v>-0.4501523624309118</v>
@@ -3973,7 +3970,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.08764295907345517</v>
+        <v>-0.08764295907345568</v>
       </c>
       <c r="D187" t="n">
         <v>3.447923555680021</v>
@@ -3992,7 +3989,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C188" t="n">
-        <v>0.02704649454036152</v>
+        <v>0.02704649454035617</v>
       </c>
       <c r="D188" t="n">
         <v>0.3874774242539849</v>
@@ -4030,7 +4027,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C190" t="n">
-        <v>0.03242752557439942</v>
+        <v>0.03242752557439503</v>
       </c>
       <c r="D190" t="n">
         <v>0.1090985527171916</v>
@@ -4049,7 +4046,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C191" t="n">
-        <v>0.2945475595377284</v>
+        <v>0.2945475595377326</v>
       </c>
       <c r="D191" t="n">
         <v>0.1638954329764565</v>
@@ -4068,7 +4065,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C192" t="n">
-        <v>0.02276610479218201</v>
+        <v>0.02276610479217759</v>
       </c>
       <c r="D192" t="n">
         <v>-0.3075143034020229</v>
@@ -4087,7 +4084,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.0005110955826685635</v>
+        <v>-0.0005110955826680829</v>
       </c>
       <c r="D193" t="n">
         <v>0.4016828081285219</v>
@@ -4106,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.07555660716451448</v>
+        <v>-0.07555660716451483</v>
       </c>
       <c r="D194" t="n">
         <v>0.9578899332364889</v>
@@ -4125,7 +4122,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C195" t="n">
-        <v>0.01879584614021775</v>
+        <v>0.01879584614021364</v>
       </c>
       <c r="D195" t="n">
         <v>0.3986642354696197</v>
@@ -4144,7 +4141,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1008053163688335</v>
+        <v>0.1008053163688272</v>
       </c>
       <c r="D196" t="n">
         <v>0.1715675720301882</v>
@@ -4163,7 +4160,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C197" t="n">
-        <v>0.05397263888675038</v>
+        <v>0.0539726388867476</v>
       </c>
       <c r="D197" t="n">
         <v>0.04320648813731671</v>
@@ -4201,7 +4198,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.1578942703269109</v>
+        <v>-0.1578942703269113</v>
       </c>
       <c r="D199" t="n">
         <v>-0.2161028323241002</v>
@@ -4220,7 +4217,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C200" t="n">
-        <v>0.07006774382185027</v>
+        <v>0.07006774382184661</v>
       </c>
       <c r="D200" t="n">
         <v>0.100795258130077</v>
@@ -4239,7 +4236,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1227887276342623</v>
+        <v>0.1227887276342608</v>
       </c>
       <c r="D201" t="n">
         <v>-0.1057066323685918</v>
@@ -4277,7 +4274,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.004881220255904337</v>
+        <v>-0.004881220255904015</v>
       </c>
       <c r="D203" t="n">
         <v>0.4269432443243567</v>
@@ -4296,7 +4293,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C204" t="n">
-        <v>0.03776867253056015</v>
+        <v>0.03776867253056421</v>
       </c>
       <c r="D204" t="n">
         <v>0.04791621944458113</v>
@@ -4315,7 +4312,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C205" t="n">
-        <v>0.04928243736102666</v>
+        <v>0.0492824373610279</v>
       </c>
       <c r="D205" t="n">
         <v>-0.1215084937763312</v>
@@ -4334,7 +4331,7 @@
         <v>-0.4941090702700427</v>
       </c>
       <c r="C206" t="n">
-        <v>0.4938749202795663</v>
+        <v>0.4938749202795626</v>
       </c>
       <c r="D206" t="n">
         <v>-2.274604667446178</v>
@@ -4353,7 +4350,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.06749102622267229</v>
+        <v>-0.06749102622267163</v>
       </c>
       <c r="D207" t="n">
         <v>-0.08927938415612775</v>
@@ -4372,7 +4369,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1631033469862313</v>
+        <v>0.1631033469862365</v>
       </c>
       <c r="D208" t="n">
         <v>0.1313959953514506</v>
@@ -4391,7 +4388,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C209" t="n">
-        <v>0.02877793417135972</v>
+        <v>0.028777934171366</v>
       </c>
       <c r="D209" t="n">
         <v>-0.0307245295362637</v>
@@ -4410,7 +4407,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.09276985752897293</v>
+        <v>-0.09276985752897361</v>
       </c>
       <c r="D210" t="n">
         <v>-0.1693242193841897</v>
@@ -4429,7 +4426,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C211" t="n">
-        <v>0.01874000668846128</v>
+        <v>0.01874000668846665</v>
       </c>
       <c r="D211" t="n">
         <v>-0.03098345957279519</v>
@@ -4448,7 +4445,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C212" t="n">
-        <v>0.03703208949076215</v>
+        <v>0.03703208949076309</v>
       </c>
       <c r="D212" t="n">
         <v>-0.1285520899928279</v>
@@ -4467,7 +4464,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C213" t="n">
-        <v>0.06038921079339634</v>
+        <v>0.06038921079339327</v>
       </c>
       <c r="D213" t="n">
         <v>0.07360724122405836</v>
@@ -4486,7 +4483,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.1868246966601933</v>
+        <v>-0.1868246966601931</v>
       </c>
       <c r="D214" t="n">
         <v>-0.3397418973379349</v>
@@ -4505,7 +4502,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.1095868912665099</v>
+        <v>-0.1095868912665105</v>
       </c>
       <c r="D215" t="n">
         <v>0.07359103582370832</v>
@@ -4524,7 +4521,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C216" t="n">
-        <v>0.02251882649192706</v>
+        <v>0.02251882649192422</v>
       </c>
       <c r="D216" t="n">
         <v>0.00293365470244876</v>
@@ -4543,7 +4540,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.2962449377367573</v>
+        <v>-0.2962449377367579</v>
       </c>
       <c r="D217" t="n">
         <v>0.02160562355665215</v>
@@ -4562,7 +4559,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C218" t="n">
-        <v>0.08207224806175617</v>
+        <v>0.08207224806175102</v>
       </c>
       <c r="D218" t="n">
         <v>0.3352895295695717</v>
@@ -4581,7 +4578,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C219" t="n">
-        <v>0.02657348509966816</v>
+        <v>0.02657348509967068</v>
       </c>
       <c r="D219" t="n">
         <v>-0.03899051381405167</v>
@@ -4600,7 +4597,7 @@
         <v>0.5558161550616397</v>
       </c>
       <c r="C220" t="n">
-        <v>0.8143799077327223</v>
+        <v>0.8143799077327235</v>
       </c>
       <c r="D220" t="n">
         <v>1.294988868809441</v>
@@ -4619,7 +4616,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C221" t="n">
-        <v>0.08739401202197369</v>
+        <v>0.08739401202196947</v>
       </c>
       <c r="D221" t="n">
         <v>0.1292675501658183</v>
@@ -4638,7 +4635,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C222" t="n">
-        <v>0.02337391985486661</v>
+        <v>0.02337391985486314</v>
       </c>
       <c r="D222" t="n">
         <v>-0.113574100777361</v>
@@ -4657,7 +4654,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1160528956369159</v>
+        <v>0.1160528956369106</v>
       </c>
       <c r="D223" t="n">
         <v>0.05600258867916288</v>
@@ -4676,7 +4673,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.009162303196150287</v>
+        <v>-0.009162303196149642</v>
       </c>
       <c r="D224" t="n">
         <v>-0.2359688784025435</v>
@@ -4695,7 +4692,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C225" t="n">
-        <v>0.04675289450838618</v>
+        <v>0.0467528945083896</v>
       </c>
       <c r="D225" t="n">
         <v>0.3200645466015115</v>
@@ -4714,7 +4711,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C226" t="n">
-        <v>0.09741426408662862</v>
+        <v>0.0974142640866352</v>
       </c>
       <c r="D226" t="n">
         <v>0.1818097437638219</v>
@@ -4733,7 +4730,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.1127693830585037</v>
+        <v>-0.112769383058504</v>
       </c>
       <c r="D227" t="n">
         <v>-0.1529628667914036</v>
@@ -4752,7 +4749,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C228" t="n">
-        <v>-2.779475889482167</v>
+        <v>-2.779475889482166</v>
       </c>
       <c r="D228" t="n">
         <v>-0.214139267128087</v>
@@ -4771,7 +4768,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.01426007488589537</v>
+        <v>-0.01426007488589569</v>
       </c>
       <c r="D229" t="n">
         <v>-0.2263278689893057</v>
@@ -4790,7 +4787,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C230" t="n">
-        <v>0.09288632784994909</v>
+        <v>0.09288632784994788</v>
       </c>
       <c r="D230" t="n">
         <v>0.2201678033856483</v>
@@ -4809,7 +4806,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C231" t="n">
-        <v>0.02297312494217106</v>
+        <v>0.02297312494217516</v>
       </c>
       <c r="D231" t="n">
         <v>0.08680254820827196</v>
@@ -4828,7 +4825,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C232" t="n">
-        <v>0.09553367611838591</v>
+        <v>0.09553367611838622</v>
       </c>
       <c r="D232" t="n">
         <v>-0.1334359051206952</v>
@@ -4847,7 +4844,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.04269989273533753</v>
+        <v>-0.04269989273533687</v>
       </c>
       <c r="D233" t="n">
         <v>-0.05488696102121765</v>
@@ -4866,7 +4863,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.4225610190179725</v>
+        <v>-0.4225610190179729</v>
       </c>
       <c r="D234" t="n">
         <v>-0.3505144885662603</v>
@@ -4885,7 +4882,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.1118502568582302</v>
+        <v>-0.1118502568582298</v>
       </c>
       <c r="D235" t="n">
         <v>0.3050181022611925</v>
@@ -4904,7 +4901,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3284892217149924</v>
+        <v>0.3284892217149875</v>
       </c>
       <c r="D236" t="n">
         <v>0.2801355700772641</v>
@@ -4923,7 +4920,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.1775495016505705</v>
+        <v>-0.1775495016505697</v>
       </c>
       <c r="D237" t="n">
         <v>-0.7808604182617429</v>
@@ -4942,7 +4939,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C238" t="n">
-        <v>0.0336302983742228</v>
+        <v>0.03363029837422499</v>
       </c>
       <c r="D238" t="n">
         <v>0.02301411529447025</v>
@@ -4961,7 +4958,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.1297252602799303</v>
+        <v>-0.1297252602799306</v>
       </c>
       <c r="D239" t="n">
         <v>-0.2308015027451869</v>
@@ -4980,7 +4977,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C240" t="n">
-        <v>0.2866629827065344</v>
+        <v>0.286662982706531</v>
       </c>
       <c r="D240" t="n">
         <v>0.1511416326553214</v>
@@ -4999,7 +4996,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.1488182075910442</v>
+        <v>-0.1488182075910449</v>
       </c>
       <c r="D241" t="n">
         <v>0.1362583302072292</v>
@@ -5018,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.04366390450037778</v>
+        <v>-0.04366390450037844</v>
       </c>
       <c r="D242" t="n">
         <v>-0.1214350835087884</v>
@@ -5037,7 +5034,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2459470653453225</v>
+        <v>0.245947065345319</v>
       </c>
       <c r="D243" t="n">
         <v>0.1030382505562046</v>
@@ -5056,7 +5053,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1352922178886233</v>
+        <v>0.1352922178886274</v>
       </c>
       <c r="D244" t="n">
         <v>0.05851682994153923</v>
@@ -5075,7 +5072,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.08692372872904584</v>
+        <v>-0.08692372872904551</v>
       </c>
       <c r="D245" t="n">
         <v>-0.1551964416060512</v>
@@ -5094,14 +5091,11 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C246" t="n">
-        <v>0.01834372526373619</v>
+        <v>0.01834372526374031</v>
       </c>
       <c r="D246" t="n">
         <v>-0.01514354390672607</v>
       </c>
-      <c r="E246" t="n">
-        <v>0.01682560988540005</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5113,7 +5107,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.2902542990676981</v>
+        <v>-0.2902542990676987</v>
       </c>
       <c r="D247" t="n">
         <v>-0.5555053079635871</v>
@@ -5132,7 +5126,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1060360206856845</v>
+        <v>0.1060360206856868</v>
       </c>
       <c r="D248" t="n">
         <v>0.1638421427089662</v>
@@ -5151,7 +5145,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.08689424732428486</v>
+        <v>-0.08689424732428418</v>
       </c>
       <c r="D249" t="n">
         <v>-0.6469741174879189</v>
@@ -5170,7 +5164,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.1769210144968478</v>
+        <v>-0.1769210144968485</v>
       </c>
       <c r="D250" t="n">
         <v>-0.04661305411927213</v>
@@ -5189,7 +5183,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.04393758169690874</v>
+        <v>-0.04393758169690824</v>
       </c>
       <c r="D251" t="n">
         <v>0.06188417973537305</v>
@@ -5227,7 +5221,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C253" t="n">
-        <v>0.1838780448594266</v>
+        <v>0.1838780448594221</v>
       </c>
       <c r="D253" t="n">
         <v>-0.2258992447079295</v>
@@ -5246,14 +5240,11 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.07877890439427632</v>
+        <v>-0.07877890439427716</v>
       </c>
       <c r="D254" t="n">
         <v>0.257385509570623</v>
       </c>
-      <c r="E254" t="n">
-        <v>-1.083286826009842</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5265,7 +5256,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C255" t="n">
-        <v>0.05198803958040809</v>
+        <v>0.05198803958041025</v>
       </c>
       <c r="D255" t="n">
         <v>-0.8172814848284756</v>
@@ -5284,7 +5275,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.07287724699707891</v>
+        <v>-0.07287724699707941</v>
       </c>
       <c r="D256" t="n">
         <v>0.004228991402688034</v>
@@ -5303,7 +5294,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1264526823459503</v>
+        <v>0.126452682345952</v>
       </c>
       <c r="D257" t="n">
         <v>-0.04205622241391179</v>
@@ -5322,7 +5313,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C258" t="n">
-        <v>0.09332850911373254</v>
+        <v>0.09332850911373705</v>
       </c>
       <c r="D258" t="n">
         <v>0.276102085015984</v>
@@ -5341,7 +5332,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C259" t="n">
-        <v>0.5525280078096788</v>
+        <v>0.5525280078096797</v>
       </c>
       <c r="D259" t="n">
         <v>-0.2048827120852437</v>
@@ -5360,7 +5351,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.1239658004724548</v>
+        <v>-0.1239658004724544</v>
       </c>
       <c r="D260" t="n">
         <v>-0.1091951539530614</v>
@@ -5398,7 +5389,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C262" t="n">
-        <v>0.03640991039327485</v>
+        <v>0.03640991039327204</v>
       </c>
       <c r="D262" t="n">
         <v>-0.05615246684472052</v>
@@ -5417,7 +5408,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.1383106313155306</v>
+        <v>-0.1383106313155309</v>
       </c>
       <c r="D263" t="n">
         <v>0.1101028340330101</v>
@@ -5436,7 +5427,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.1203787724093003</v>
+        <v>-0.1203787724092999</v>
       </c>
       <c r="D264" t="n">
         <v>-0.2194940021439327</v>
@@ -5455,7 +5446,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C265" t="n">
-        <v>0.08849265937961331</v>
+        <v>0.08849265937961874</v>
       </c>
       <c r="D265" t="n">
         <v>0.0699207623729708</v>
@@ -5474,7 +5465,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0316136064570243</v>
+        <v>0.03161360645702994</v>
       </c>
       <c r="D266" t="n">
         <v>0.09989762612854079</v>
@@ -5512,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.06015920328280067</v>
+        <v>-0.06015920328280117</v>
       </c>
       <c r="D268" t="n">
         <v>0.172849874288608</v>
@@ -5531,7 +5522,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.02878010417729813</v>
+        <v>-0.02878010417729862</v>
       </c>
       <c r="D269" t="n">
         <v>0.08977512261103043</v>
@@ -5550,7 +5541,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.02326162272005315</v>
+        <v>-0.0232616227200525</v>
       </c>
       <c r="D270" t="n">
         <v>0.05454862413557491</v>
@@ -5588,7 +5579,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C272" t="n">
-        <v>0.008201170019008202</v>
+        <v>0.008201170019012025</v>
       </c>
       <c r="D272" t="n">
         <v>0.2183597627295369</v>
@@ -5607,7 +5598,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C273" t="n">
-        <v>0.02071121225530198</v>
+        <v>0.02071121225530292</v>
       </c>
       <c r="D273" t="n">
         <v>0.06230630063294303</v>
@@ -5626,7 +5617,7 @@
         <v>-0.3040061868900999</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.2805346645956058</v>
+        <v>-0.2805346645956052</v>
       </c>
       <c r="D274" t="n">
         <v>0.3802781411043322</v>
@@ -5645,7 +5636,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.1622714288988772</v>
+        <v>-0.1622714288988766</v>
       </c>
       <c r="D275" t="n">
         <v>0.2183542856332408</v>
@@ -5683,7 +5674,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C277" t="n">
-        <v>0.0363109600616275</v>
+        <v>0.03631096006163156</v>
       </c>
       <c r="D277" t="n">
         <v>-0.05735017973566632</v>
@@ -5721,7 +5712,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C279" t="n">
-        <v>0.09822609787575383</v>
+        <v>0.09822609787575143</v>
       </c>
       <c r="D279" t="n">
         <v>0.3199786132557241</v>
@@ -5740,7 +5731,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C280" t="n">
-        <v>0.001845951798868683</v>
+        <v>0.001845951798871562</v>
       </c>
       <c r="D280" t="n">
         <v>-0.002000860741396053</v>
@@ -5759,7 +5750,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.06148827582297025</v>
+        <v>-0.06148827582297092</v>
       </c>
       <c r="D281" t="n">
         <v>-0.04195462798001806</v>
@@ -5778,7 +5769,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.133234332041712</v>
+        <v>-0.1332343320417115</v>
       </c>
       <c r="D282" t="n">
         <v>-0.09877166486039549</v>
@@ -5797,7 +5788,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C283" t="n">
-        <v>0.09625680026607429</v>
+        <v>0.09625680026608088</v>
       </c>
       <c r="D283" t="n">
         <v>0.1001368008597615</v>
@@ -5816,7 +5807,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.38901104971815</v>
+        <v>-0.3890110497181503</v>
       </c>
       <c r="D284" t="n">
         <v>-0.1861469260481609</v>
@@ -5835,7 +5826,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.08854128738057586</v>
+        <v>-0.08854128738057518</v>
       </c>
       <c r="D285" t="n">
         <v>-0.09994974433332335</v>
@@ -5854,7 +5845,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.0228739061261255</v>
+        <v>-0.02287390612612582</v>
       </c>
       <c r="D286" t="n">
         <v>-0.3182283393840998</v>
@@ -5873,7 +5864,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.07781166922612721</v>
+        <v>-0.07781166922612687</v>
       </c>
       <c r="D287" t="n">
         <v>0.2135038937441276</v>
@@ -5892,7 +5883,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C288" t="n">
-        <v>0.07022198497235672</v>
+        <v>0.07022198497235489</v>
       </c>
       <c r="D288" t="n">
         <v>0.2782593778145135</v>
@@ -5911,7 +5902,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C289" t="n">
-        <v>0.06789796454348948</v>
+        <v>0.0678979645434846</v>
       </c>
       <c r="D289" t="n">
         <v>0.4220736886775046</v>
@@ -5930,7 +5921,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C290" t="n">
-        <v>0.1026191718653779</v>
+        <v>0.10261917186538</v>
       </c>
       <c r="D290" t="n">
         <v>-0.03788537062940021</v>
@@ -5949,7 +5940,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C291" t="n">
-        <v>0.1761923500272558</v>
+        <v>0.176192350027262</v>
       </c>
       <c r="D291" t="n">
         <v>0.1128190344243325</v>
@@ -5968,7 +5959,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C292" t="n">
-        <v>0.01251577738539808</v>
+        <v>0.01251577738540507</v>
       </c>
       <c r="D292" t="n">
         <v>0.5093487246171315</v>
@@ -5987,7 +5978,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.4569008991511539</v>
+        <v>-0.4569008991511531</v>
       </c>
       <c r="D293" t="n">
         <v>-0.6411332944125897</v>
@@ -6025,7 +6016,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.01862404741468583</v>
+        <v>-0.01862404741468648</v>
       </c>
       <c r="D295" t="n">
         <v>-0.03806416691933231</v>
@@ -6044,7 +6035,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C296" t="n">
-        <v>0.3102853119164662</v>
+        <v>0.3102853119164722</v>
       </c>
       <c r="D296" t="n">
         <v>0.2228035452279978</v>
@@ -6063,7 +6054,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C297" t="n">
-        <v>0.007498376962133409</v>
+        <v>0.00749837696213086</v>
       </c>
       <c r="D297" t="n">
         <v>0.1652102557969909</v>
@@ -6082,7 +6073,7 @@
         <v>-0.4941090702700427</v>
       </c>
       <c r="C298" t="n">
-        <v>-0.4931308353565036</v>
+        <v>-0.4931308353565043</v>
       </c>
       <c r="D298" t="n">
         <v>-0.5058756667291966</v>
@@ -6101,7 +6092,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C299" t="n">
-        <v>0.03290613913355883</v>
+        <v>0.03290613913355194</v>
       </c>
       <c r="D299" t="n">
         <v>0.161631715673265</v>
@@ -6120,7 +6111,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C300" t="n">
-        <v>0.07426267983880536</v>
+        <v>0.07426267983880566</v>
       </c>
       <c r="D300" t="n">
         <v>0.06400162485322318</v>
@@ -6139,7 +6130,7 @@
         <v>-0.3770696490798233</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.2869289155443433</v>
+        <v>-0.2869289155443439</v>
       </c>
       <c r="D301" t="n">
         <v>-0.5455487274766984</v>
@@ -6158,7 +6149,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C302" t="n">
-        <v>-0.07899700540089437</v>
+        <v>-0.0789970054008947</v>
       </c>
       <c r="D302" t="n">
         <v>-0.08752372523003304</v>
@@ -6215,7 +6206,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1528729186501593</v>
+        <v>0.1528729186501553</v>
       </c>
       <c r="D305" t="n">
         <v>0.3225385397403981</v>
@@ -6234,7 +6225,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C306" t="n">
-        <v>-0.115508259475233</v>
+        <v>-0.1155082594752331</v>
       </c>
       <c r="D306" t="n">
         <v>-0.4236968187999984</v>
@@ -6253,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>0.03979550609981884</v>
+        <v>0.03979550609982444</v>
       </c>
       <c r="D307" t="n">
         <v>-0.1022136887062721</v>
@@ -6272,7 +6263,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C308" t="n">
-        <v>0.05070253173320517</v>
+        <v>0.0507025317332027</v>
       </c>
       <c r="D308" t="n">
         <v>0.1092691977636061</v>
@@ -6291,7 +6282,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0643964161877445</v>
+        <v>0.06439641618775001</v>
       </c>
       <c r="D309" t="n">
         <v>0.04675343457579322</v>
@@ -6310,7 +6301,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.02610283025115606</v>
+        <v>-0.02610283025115541</v>
       </c>
       <c r="D310" t="n">
         <v>-0.03098834918694067</v>
@@ -6329,7 +6320,7 @@
         <v>-0.4739311883324124</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.4732235937715482</v>
+        <v>-0.4732235937715493</v>
       </c>
       <c r="D311" t="n">
         <v>-0.5196385679491263</v>
@@ -6348,7 +6339,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C312" t="n">
-        <v>-0.472587695623561</v>
+        <v>-0.4725876956235608</v>
       </c>
       <c r="D312" t="n">
         <v>-0.1639388415818439</v>
@@ -6367,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>0.02319613905030205</v>
+        <v>0.02319613905030362</v>
       </c>
       <c r="D313" t="n">
         <v>-0.04134076171270563</v>
@@ -6386,7 +6377,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C314" t="n">
-        <v>-0.06224171123271676</v>
+        <v>-0.06224171123271625</v>
       </c>
       <c r="D314" t="n">
         <v>0.04019247872048491</v>
@@ -6405,7 +6396,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C315" t="n">
-        <v>-0.09804770642718615</v>
+        <v>-0.09804770642718631</v>
       </c>
       <c r="D315" t="n">
         <v>-0.05578134895794087</v>
@@ -6424,7 +6415,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C316" t="n">
-        <v>0.002242892802968246</v>
+        <v>0.002242892802965047</v>
       </c>
       <c r="D316" t="n">
         <v>-0.005655596170993395</v>
@@ -6443,7 +6434,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C317" t="n">
-        <v>0.0409851156776742</v>
+        <v>0.04098511567767545</v>
       </c>
       <c r="D317" t="n">
         <v>-0.3469111547948865</v>
@@ -6462,7 +6453,7 @@
         <v>0.2750070474998698</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1520905798791382</v>
+        <v>0.1520905798791345</v>
       </c>
       <c r="D318" t="n">
         <v>0.1762729913901946</v>
@@ -6481,7 +6472,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.0515740242746304</v>
+        <v>-0.05157402427463023</v>
       </c>
       <c r="D319" t="n">
         <v>-0.1359660150146474</v>
@@ -6500,7 +6491,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C320" t="n">
-        <v>0.06934804669073498</v>
+        <v>0.06934804669072918</v>
       </c>
       <c r="D320" t="n">
         <v>0.009921195418839589</v>
@@ -6519,7 +6510,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.04253627849936236</v>
+        <v>-0.04253627849936203</v>
       </c>
       <c r="D321" t="n">
         <v>0.09711169448629561</v>
@@ -6538,7 +6529,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C322" t="n">
-        <v>0.09710386391858199</v>
+        <v>0.0971038639185781</v>
       </c>
       <c r="D322" t="n">
         <v>0.02703919758935518</v>
@@ -6595,7 +6586,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C325" t="n">
-        <v>-0.07927552348445115</v>
+        <v>-0.07927552348445183</v>
       </c>
       <c r="D325" t="n">
         <v>0.4878406318797165</v>
@@ -6614,7 +6605,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.04681053885419247</v>
+        <v>-0.0468105388541928</v>
       </c>
       <c r="D326" t="n">
         <v>0.007105112962094961</v>
@@ -6633,7 +6624,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.0995298071364627</v>
+        <v>-0.09952980713646202</v>
       </c>
       <c r="D327" t="n">
         <v>-0.2112921759925097</v>
@@ -6652,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>0.02102624526185127</v>
+        <v>0.02102624526185411</v>
       </c>
       <c r="D328" t="n">
         <v>0.1305931257267612</v>
@@ -6671,7 +6662,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.04764631923368665</v>
+        <v>-0.04764631923368699</v>
       </c>
       <c r="D329" t="n">
         <v>0.3244989348082947</v>
@@ -6690,7 +6681,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C330" t="n">
-        <v>0.05965963535505771</v>
+        <v>0.05965963535505218</v>
       </c>
       <c r="D330" t="n">
         <v>1.026585370425284</v>
@@ -6709,7 +6700,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.1354293431500969</v>
+        <v>-0.1354293431500976</v>
       </c>
       <c r="D331" t="n">
         <v>-0.1591050971279531</v>
@@ -6728,7 +6719,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C332" t="n">
-        <v>-0.0213546206380921</v>
+        <v>-0.02135462063809243</v>
       </c>
       <c r="D332" t="n">
         <v>-0.02055609787311708</v>
@@ -6747,7 +6738,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C333" t="n">
-        <v>0.1548112280825509</v>
+        <v>0.1548112280825462</v>
       </c>
       <c r="D333" t="n">
         <v>0.3319733188990502</v>
@@ -6766,7 +6757,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C334" t="n">
-        <v>0.1984640597289385</v>
+        <v>0.1984640597289435</v>
       </c>
       <c r="D334" t="n">
         <v>0.5143685408977575</v>
@@ -6785,7 +6776,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1024081160362437</v>
+        <v>0.1024081160362449</v>
       </c>
       <c r="D335" t="n">
         <v>0.179289692611995</v>
@@ -6804,7 +6795,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.1587495741543354</v>
+        <v>-0.1587495741543359</v>
       </c>
       <c r="D336" t="n">
         <v>-0.1817949404982045</v>
@@ -6823,7 +6814,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C337" t="n">
-        <v>0.06115413587231058</v>
+        <v>0.06115413587231426</v>
       </c>
       <c r="D337" t="n">
         <v>0.1248093907752291</v>
@@ -6842,7 +6833,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C338" t="n">
-        <v>0.2834522839556297</v>
+        <v>0.2834522839556273</v>
       </c>
       <c r="D338" t="n">
         <v>0.5102592312760826</v>
@@ -6861,7 +6852,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C339" t="n">
-        <v>-0.03858353143780618</v>
+        <v>-0.03858353143780553</v>
       </c>
       <c r="D339" t="n">
         <v>0.4578113465861584</v>
@@ -6880,7 +6871,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C340" t="n">
-        <v>-0.04703159592703777</v>
+        <v>-0.0470315959270381</v>
       </c>
       <c r="D340" t="n">
         <v>0.112528357747123</v>
@@ -6899,7 +6890,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9338330760342539</v>
+        <v>0.9338330760342562</v>
       </c>
       <c r="D341" t="n">
         <v>0.410105538044892</v>
@@ -6918,7 +6909,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C342" t="n">
-        <v>-0.004377847369710379</v>
+        <v>-0.004377847369710862</v>
       </c>
       <c r="D342" t="n">
         <v>-0.03023147839390815</v>
@@ -6937,7 +6928,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C343" t="n">
-        <v>-0.1235704576141929</v>
+        <v>-0.1235704576141926</v>
       </c>
       <c r="D343" t="n">
         <v>-0.09672862791914953</v>
@@ -6956,7 +6947,7 @@
         <v>0.2509615735332187</v>
       </c>
       <c r="C344" t="n">
-        <v>0.08686594827383026</v>
+        <v>0.08686594827383327</v>
       </c>
       <c r="D344" t="n">
         <v>0.007884348190365841</v>
@@ -6994,7 +6985,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C346" t="n">
-        <v>0.1370373989648922</v>
+        <v>0.1370373989648951</v>
       </c>
       <c r="D346" t="n">
         <v>0.06343719408951268</v>
@@ -7013,7 +7004,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C347" t="n">
-        <v>0.07562770481336968</v>
+        <v>0.0756277048133636</v>
       </c>
       <c r="D347" t="n">
         <v>0.04329855627738613</v>
@@ -7051,7 +7042,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C349" t="n">
-        <v>0.09750500906368741</v>
+        <v>0.09750500906369339</v>
       </c>
       <c r="D349" t="n">
         <v>-0.08065052514332204</v>
@@ -7070,7 +7061,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C350" t="n">
-        <v>0.0983618866619172</v>
+        <v>0.09836188666191539</v>
       </c>
       <c r="D350" t="n">
         <v>0.129044658038606</v>
@@ -7108,7 +7099,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.0515354429387829</v>
+        <v>-0.05153544293878357</v>
       </c>
       <c r="D352" t="n">
         <v>-0.07506559269172589</v>
@@ -7146,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>-0.3206904065463112</v>
+        <v>-0.3206904065463118</v>
       </c>
       <c r="D354" t="n">
         <v>-2.466496233396617</v>
@@ -7184,7 +7175,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C356" t="n">
-        <v>0.0466145838929732</v>
+        <v>0.04661458389297569</v>
       </c>
       <c r="D356" t="n">
         <v>-0.007817907916734992</v>
@@ -7203,7 +7194,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C357" t="n">
-        <v>0.1658388707373959</v>
+        <v>0.1658388707373937</v>
       </c>
       <c r="D357" t="n">
         <v>0.1634861979226608</v>
@@ -7222,7 +7213,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C358" t="n">
-        <v>-0.1406875794252713</v>
+        <v>-0.1406875794252709</v>
       </c>
       <c r="D358" t="n">
         <v>0.312747799063841</v>
@@ -7260,7 +7251,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C360" t="n">
-        <v>0.09825029415217618</v>
+        <v>0.09825029415218006</v>
       </c>
       <c r="D360" t="n">
         <v>-0.03326088845295124</v>
@@ -7279,7 +7270,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C361" t="n">
-        <v>0.009872290746932411</v>
+        <v>0.009872290746937502</v>
       </c>
       <c r="D361" t="n">
         <v>0.1965672446128586</v>
@@ -7298,7 +7289,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C362" t="n">
-        <v>0.1168701695202662</v>
+        <v>0.1168701695202694</v>
       </c>
       <c r="D362" t="n">
         <v>0.0275187472726532</v>
@@ -7317,7 +7308,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C363" t="n">
-        <v>0.2515017624805882</v>
+        <v>0.2515017624805944</v>
       </c>
       <c r="D363" t="n">
         <v>-0.4119096033139208</v>
@@ -7336,7 +7327,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C364" t="n">
-        <v>0.09346298551896604</v>
+        <v>0.09346298551897024</v>
       </c>
       <c r="D364" t="n">
         <v>0.08939221854363408</v>
@@ -7355,7 +7346,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C365" t="n">
-        <v>-0.1535231980121548</v>
+        <v>-0.1535231980121554</v>
       </c>
       <c r="D365" t="n">
         <v>-0.01506531942764701</v>
@@ -7374,7 +7365,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C366" t="n">
-        <v>-0.1033462890525301</v>
+        <v>-0.1033462890525298</v>
       </c>
       <c r="D366" t="n">
         <v>-0.1894240190128283</v>
@@ -7393,7 +7384,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C367" t="n">
-        <v>0.03452444412828314</v>
+        <v>0.03452444412827688</v>
       </c>
       <c r="D367" t="n">
         <v>-0.2459190038961039</v>
@@ -7412,7 +7403,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C368" t="n">
-        <v>-0.004508342797663261</v>
+        <v>-0.004508342797663904</v>
       </c>
       <c r="D368" t="n">
         <v>-0.3036023354126959</v>
@@ -7431,7 +7422,7 @@
         <v>-0.3400754415976217</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.4091883991298306</v>
+        <v>-0.4091883991298312</v>
       </c>
       <c r="D369" t="n">
         <v>-0.4813931968892764</v>
@@ -7450,7 +7441,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C370" t="n">
-        <v>-0.030691068707738</v>
+        <v>-0.03069106870773833</v>
       </c>
       <c r="D370" t="n">
         <v>-0.1738431912314375</v>
@@ -7488,7 +7479,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C372" t="n">
-        <v>-0.141688697269881</v>
+        <v>-0.1416886972698803</v>
       </c>
       <c r="D372" t="n">
         <v>-0.08737928667764289</v>
@@ -7507,7 +7498,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C373" t="n">
-        <v>0.0160761198642767</v>
+        <v>0.01607611986427447</v>
       </c>
       <c r="D373" t="n">
         <v>0.3500322257258365</v>
@@ -7526,7 +7517,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C374" t="n">
-        <v>0.06337667667859079</v>
+        <v>0.06337667667859784</v>
       </c>
       <c r="D374" t="n">
         <v>0.08900338657415853</v>
@@ -7545,7 +7536,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C375" t="n">
-        <v>-0.2037582915962096</v>
+        <v>-0.2037582915962101</v>
       </c>
       <c r="D375" t="n">
         <v>-0.08189208348458801</v>
@@ -7564,7 +7555,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.01154932151252328</v>
+        <v>-0.01154932151252264</v>
       </c>
       <c r="D376" t="n">
         <v>0.02957628160383474</v>
@@ -7583,7 +7574,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.08235379443155713</v>
+        <v>-0.08235379443155662</v>
       </c>
       <c r="D377" t="n">
         <v>-0.1191984827827064</v>
@@ -7602,7 +7593,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C378" t="n">
-        <v>0.03920072191674685</v>
+        <v>0.03920072191675121</v>
       </c>
       <c r="D378" t="n">
         <v>0.091878740322984</v>
@@ -7621,7 +7612,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.01551614736207252</v>
+        <v>-0.01551614736207317</v>
       </c>
       <c r="D379" t="n">
         <v>0.9684817521823023</v>
@@ -7640,7 +7631,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C380" t="n">
-        <v>0.2289466106450969</v>
+        <v>0.2289466106450925</v>
       </c>
       <c r="D380" t="n">
         <v>0.2141327388917706</v>
@@ -7659,7 +7650,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C381" t="n">
-        <v>-0.08818974028409027</v>
+        <v>-0.08818974028408993</v>
       </c>
       <c r="D381" t="n">
         <v>-0.252070162286401</v>
@@ -7678,7 +7669,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C382" t="n">
-        <v>-0.01329781905475503</v>
+        <v>-0.01329781905475536</v>
       </c>
       <c r="D382" t="n">
         <v>0.7666762044803545</v>
@@ -7697,7 +7688,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C383" t="n">
-        <v>0.03091229748400071</v>
+        <v>0.03091229748400572</v>
       </c>
       <c r="D383" t="n">
         <v>0.2616422184914932</v>
@@ -7716,7 +7707,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C384" t="n">
-        <v>0.05665573512461093</v>
+        <v>0.05665573512461371</v>
       </c>
       <c r="D384" t="n">
         <v>-0.007501733955907626</v>
@@ -7735,7 +7726,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C385" t="n">
-        <v>0.01298353153111404</v>
+        <v>0.01298353153111817</v>
       </c>
       <c r="D385" t="n">
         <v>-0.1665342991799162</v>
@@ -7754,7 +7745,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.01703275759703132</v>
+        <v>-0.01703275759703181</v>
       </c>
       <c r="D386" t="n">
         <v>0.008739550418705302</v>
@@ -7773,7 +7764,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C387" t="n">
-        <v>0.04983655263508049</v>
+        <v>0.04983655263508296</v>
       </c>
       <c r="D387" t="n">
         <v>0.3883688609981802</v>
@@ -7792,7 +7783,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C388" t="n">
-        <v>0.02012908257267558</v>
+        <v>0.02012908257267716</v>
       </c>
       <c r="D388" t="n">
         <v>0.02671098765913263</v>
@@ -7811,7 +7802,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C389" t="n">
-        <v>0.00492546882232664</v>
+        <v>0.004925468822333345</v>
       </c>
       <c r="D389" t="n">
         <v>-0.02141967259359433</v>
@@ -7830,7 +7821,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C390" t="n">
-        <v>0.01087190556357057</v>
+        <v>0.01087190556356517</v>
       </c>
       <c r="D390" t="n">
         <v>0.004236849939002343</v>
@@ -7849,7 +7840,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.00437101176901105</v>
+        <v>-0.004371011769011371</v>
       </c>
       <c r="D391" t="n">
         <v>0.3589260002449097</v>
@@ -7868,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>0.08232554898769594</v>
+        <v>0.08232554898770139</v>
       </c>
       <c r="D392" t="n">
         <v>0.6537484782541658</v>
@@ -7887,7 +7878,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.0005826363752182612</v>
+        <v>-0.0005826363752185817</v>
       </c>
       <c r="D393" t="n">
         <v>-0.0008427451320297557</v>
@@ -7906,7 +7897,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C394" t="n">
-        <v>-0.01254951294564839</v>
+        <v>-0.01254951294564807</v>
       </c>
       <c r="D394" t="n">
         <v>-0.1149451419675073</v>
@@ -7925,7 +7916,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C395" t="n">
-        <v>-0.1758002938316424</v>
+        <v>-0.1758002938316431</v>
       </c>
       <c r="D395" t="n">
         <v>-0.3755429133650217</v>
@@ -7944,7 +7935,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C396" t="n">
-        <v>-0.03040345855895646</v>
+        <v>-0.03040345855895711</v>
       </c>
       <c r="D396" t="n">
         <v>0.02131025956436942</v>
@@ -7963,7 +7954,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C397" t="n">
-        <v>0.01035216698876746</v>
+        <v>0.01035216698876714</v>
       </c>
       <c r="D397" t="n">
         <v>-0.04504616835040502</v>
@@ -7982,7 +7973,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C398" t="n">
-        <v>-0.1569214402686886</v>
+        <v>-0.1569214402686883</v>
       </c>
       <c r="D398" t="n">
         <v>0.8042226349809547</v>
@@ -8001,7 +7992,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C399" t="n">
-        <v>-0.1004926852217548</v>
+        <v>-0.1004926852217545</v>
       </c>
       <c r="D399" t="n">
         <v>-0.1761270196733816</v>
@@ -8020,7 +8011,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C400" t="n">
-        <v>0.264657066646476</v>
+        <v>0.2646570666464702</v>
       </c>
       <c r="D400" t="n">
         <v>0.03174881618574578</v>
@@ -8039,7 +8030,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C401" t="n">
-        <v>-0.0209518136252046</v>
+        <v>-0.02095181362520492</v>
       </c>
       <c r="D401" t="n">
         <v>0.6947708459848</v>
@@ -8077,7 +8068,7 @@
         <v>-0.2863041851566411</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.3686694651497924</v>
+        <v>-0.3686694651497918</v>
       </c>
       <c r="D403" t="n">
         <v>-0.3903453710947958</v>
@@ -8096,7 +8087,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C404" t="n">
-        <v>0.009691422978579242</v>
+        <v>0.009691422978576695</v>
       </c>
       <c r="D404" t="n">
         <v>0.04895205681196736</v>
@@ -8115,7 +8106,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C405" t="n">
-        <v>-0.09931225276455311</v>
+        <v>-0.09931225276455243</v>
       </c>
       <c r="D405" t="n">
         <v>-0.1543122416521857</v>
@@ -8153,7 +8144,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C407" t="n">
-        <v>0.04759976522558537</v>
+        <v>0.0475997652255832</v>
       </c>
       <c r="D407" t="n">
         <v>0.2828423190579504</v>
@@ -8172,7 +8163,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C408" t="n">
-        <v>0.03594811259950263</v>
+        <v>0.0359481125994992</v>
       </c>
       <c r="D408" t="n">
         <v>-0.06911504571186224</v>
@@ -8191,7 +8182,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C409" t="n">
-        <v>0.03701706500715252</v>
+        <v>0.03701706500715002</v>
       </c>
       <c r="D409" t="n">
         <v>0.1622540745329998</v>
@@ -8210,7 +8201,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C410" t="n">
-        <v>-0.1187758595800562</v>
+        <v>-0.1187758595800558</v>
       </c>
       <c r="D410" t="n">
         <v>-0.1316311403179287</v>
@@ -8229,7 +8220,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C411" t="n">
-        <v>0.01425707956245083</v>
+        <v>0.01425707956244671</v>
       </c>
       <c r="D411" t="n">
         <v>-0.1053718665390177</v>
@@ -8248,7 +8239,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C412" t="n">
-        <v>-0.07191329418526933</v>
+        <v>-0.07191329418526866</v>
       </c>
       <c r="D412" t="n">
         <v>0.07370643736445584</v>
@@ -8267,7 +8258,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C413" t="n">
-        <v>-0.07055519519071188</v>
+        <v>-0.07055519519071238</v>
       </c>
       <c r="D413" t="n">
         <v>-0.2196869586282174</v>
@@ -8286,7 +8277,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C414" t="n">
-        <v>0.03271191178397756</v>
+        <v>0.03271191178398319</v>
       </c>
       <c r="D414" t="n">
         <v>-0.08329477327736717</v>
@@ -8305,7 +8296,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C415" t="n">
-        <v>0.03807784384870895</v>
+        <v>0.03807784384870364</v>
       </c>
       <c r="D415" t="n">
         <v>0.9278634636697146</v>
@@ -8324,7 +8315,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C416" t="n">
-        <v>0.07305040218140961</v>
+        <v>0.07305040218140869</v>
       </c>
       <c r="D416" t="n">
         <v>0.08433685634436108</v>
@@ -8343,7 +8334,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C417" t="n">
-        <v>-0.1461397411449768</v>
+        <v>-0.1461397411449769</v>
       </c>
       <c r="D417" t="n">
         <v>-0.05546554672666314</v>
@@ -8362,7 +8353,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C418" t="n">
-        <v>-0.07048246808581303</v>
+        <v>-0.07048246808581203</v>
       </c>
       <c r="D418" t="n">
         <v>0.01488057726956202</v>
@@ -8397,7 +8388,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C420" t="n">
-        <v>-0.06256003329713289</v>
+        <v>-0.06256003329713222</v>
       </c>
       <c r="D420" t="n">
         <v>-0.02465685683621002</v>
@@ -8416,7 +8407,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C421" t="n">
-        <v>-0.09254137120381295</v>
+        <v>-0.09254137120381328</v>
       </c>
       <c r="D421" t="n">
         <v>-0.1232943227674721</v>
@@ -8435,7 +8426,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C422" t="n">
-        <v>-0.1279522150644003</v>
+        <v>-0.1279522150644</v>
       </c>
       <c r="D422" t="n">
         <v>-0.3609792773156827</v>
@@ -8454,7 +8445,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C423" t="n">
-        <v>-0.0536698935723708</v>
+        <v>-0.05366989357237163</v>
       </c>
       <c r="D423" t="n">
         <v>-0.03226787331437654</v>
@@ -8473,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>-0.1724325178470479</v>
+        <v>-0.1724325178470474</v>
       </c>
       <c r="D424" t="n">
         <v>-0.1187134669120836</v>
@@ -8492,7 +8483,7 @@
         <v>-0.2863041851566411</v>
       </c>
       <c r="C425" t="n">
-        <v>-0.2540423512885745</v>
+        <v>-0.2540423512885739</v>
       </c>
       <c r="D425" t="n">
         <v>-0.352266032451499</v>
@@ -8511,7 +8502,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C426" t="n">
-        <v>-0.0674183058008808</v>
+        <v>-0.06741830580088132</v>
       </c>
       <c r="D426" t="n">
         <v>-0.1009003906525534</v>
@@ -8530,7 +8521,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C427" t="n">
-        <v>-0.2150252708468615</v>
+        <v>-0.2150252708468617</v>
       </c>
       <c r="D427" t="n">
         <v>-0.2550032413552889</v>
@@ -8587,7 +8578,7 @@
         <v>0.2868811477881615</v>
       </c>
       <c r="C430" t="n">
-        <v>0.1791044282167079</v>
+        <v>0.1791044282167082</v>
       </c>
       <c r="D430" t="n">
         <v>0.08283244449811902</v>
@@ -8606,7 +8597,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C431" t="n">
-        <v>-0.2994540655335092</v>
+        <v>-0.299454065533509</v>
       </c>
       <c r="D431" t="n">
         <v>-0.5133039092272599</v>
@@ -8625,7 +8616,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C432" t="n">
-        <v>-0.10205566552943</v>
+        <v>-0.1020556655294305</v>
       </c>
       <c r="D432" t="n">
         <v>-0.21673027795157</v>
@@ -8644,7 +8635,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C433" t="n">
-        <v>0.04630530707228288</v>
+        <v>0.04630530707228878</v>
       </c>
       <c r="D433" t="n">
         <v>0.116629049367203</v>
@@ -8682,7 +8673,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C435" t="n">
-        <v>0.08496128946897055</v>
+        <v>0.08496128946896904</v>
       </c>
       <c r="D435" t="n">
         <v>0.1898363056745742</v>
@@ -8720,7 +8711,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C437" t="n">
-        <v>-0.01442930200783422</v>
+        <v>-0.01442930200783503</v>
       </c>
       <c r="D437" t="n">
         <v>0.08071495840148002</v>
@@ -8739,7 +8730,7 @@
         <v>-0.5353317329965558</v>
       </c>
       <c r="C438" t="n">
-        <v>-0.6617046667383076</v>
+        <v>-0.6617046667383065</v>
       </c>
       <c r="D438" t="n">
         <v>-0.7561797837425395</v>
@@ -8758,7 +8749,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C439" t="n">
-        <v>-0.02828959585637907</v>
+        <v>-0.02828959585637988</v>
       </c>
       <c r="D439" t="n">
         <v>-0.1522147059742374</v>
@@ -8777,7 +8768,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C440" t="n">
-        <v>0.1130419310950697</v>
+        <v>0.1130419310950665</v>
       </c>
       <c r="D440" t="n">
         <v>0.8025635167293907</v>
@@ -8796,7 +8787,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C441" t="n">
-        <v>-0.1313148520480805</v>
+        <v>-0.1313148520480798</v>
       </c>
       <c r="D441" t="n">
         <v>-0.1341110989407537</v>
@@ -8815,7 +8806,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C442" t="n">
-        <v>-0.04763511155238705</v>
+        <v>-0.04763511155238721</v>
       </c>
       <c r="D442" t="n">
         <v>-0.04506670185864838</v>
@@ -8834,7 +8825,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C443" t="n">
-        <v>-0.004843972231314114</v>
+        <v>-0.004843972231314596</v>
       </c>
       <c r="D443" t="n">
         <v>-0.0774387957437125</v>
@@ -8853,7 +8844,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C444" t="n">
-        <v>0.06724829401738094</v>
+        <v>0.06724829401738644</v>
       </c>
       <c r="D444" t="n">
         <v>-0.09871930268682505</v>
@@ -8872,7 +8863,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C445" t="n">
-        <v>-0.01178317966950367</v>
+        <v>-0.01178317966950464</v>
       </c>
       <c r="D445" t="n">
         <v>-0.09722029630701777</v>
@@ -8891,7 +8882,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C446" t="n">
-        <v>0.004790513523448997</v>
+        <v>0.004790513523450594</v>
       </c>
       <c r="D446" t="n">
         <v>0.213780373885245</v>
@@ -8910,7 +8901,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C447" t="n">
-        <v>-0.05587725042000858</v>
+        <v>-0.05587725042000908</v>
       </c>
       <c r="D447" t="n">
         <v>-0.09687097686488153</v>
@@ -8929,7 +8920,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C448" t="n">
-        <v>0.04044079371163204</v>
+        <v>0.04044079371162799</v>
       </c>
       <c r="D448" t="n">
         <v>-0.2150185645424028</v>
@@ -8948,7 +8939,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C449" t="n">
-        <v>-0.01659511192732462</v>
+        <v>-0.01659511192732527</v>
       </c>
       <c r="D449" t="n">
         <v>-0.1235551955156023</v>
@@ -8986,7 +8977,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C451" t="n">
-        <v>-0.1588386231747716</v>
+        <v>-0.1588386231747712</v>
       </c>
       <c r="D451" t="n">
         <v>-0.2205238623111598</v>
@@ -9024,7 +9015,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C453" t="n">
-        <v>-0.009205122740082537</v>
+        <v>-0.009205122740082214</v>
       </c>
       <c r="D453" t="n">
         <v>-0.0235900462439235</v>
@@ -9043,7 +9034,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C454" t="n">
-        <v>-0.1263961421602073</v>
+        <v>-0.1263961421602076</v>
       </c>
       <c r="D454" t="n">
         <v>-0.1958444440085759</v>
@@ -9062,7 +9053,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C455" t="n">
-        <v>0.01247409980143002</v>
+        <v>0.01247409980143224</v>
       </c>
       <c r="D455" t="n">
         <v>0.01092672184958349</v>
@@ -9081,7 +9072,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C456" t="n">
-        <v>-0.004594574077250268</v>
+        <v>-0.004594574077250589</v>
       </c>
       <c r="D456" t="n">
         <v>0.003480803788075035</v>
@@ -9100,7 +9091,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C457" t="n">
-        <v>-0.02149902401133002</v>
+        <v>-0.02149902401132969</v>
       </c>
       <c r="D457" t="n">
         <v>-0.01543728728875138</v>
@@ -9119,7 +9110,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C458" t="n">
-        <v>-0.05877168008559958</v>
+        <v>-0.05877168008559992</v>
       </c>
       <c r="D458" t="n">
         <v>0.1732745281389014</v>
@@ -9138,7 +9129,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C459" t="n">
-        <v>-0.4549181839812566</v>
+        <v>-0.4549181839812559</v>
       </c>
       <c r="D459" t="n">
         <v>0.2486493960045184</v>
@@ -9157,7 +9148,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C460" t="n">
-        <v>0.05630334060085818</v>
+        <v>0.05630334060085849</v>
       </c>
       <c r="D460" t="n">
         <v>0.1001663627365976</v>
@@ -9176,7 +9167,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C461" t="n">
-        <v>-0.01479194476429825</v>
+        <v>-0.01479194476429793</v>
       </c>
       <c r="D461" t="n">
         <v>0.3575290301171677</v>
@@ -9195,7 +9186,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C462" t="n">
-        <v>-0.1736027386526139</v>
+        <v>-0.1736027386526144</v>
       </c>
       <c r="D462" t="n">
         <v>-0.1678031089069754</v>
@@ -9214,7 +9205,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C463" t="n">
-        <v>-0.1262948122541684</v>
+        <v>-0.1262948122541688</v>
       </c>
       <c r="D463" t="n">
         <v>0.4763080006208639</v>
@@ -9249,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>0.0004252697905368767</v>
+        <v>0.0004252697905416804</v>
       </c>
       <c r="D465" t="n">
         <v>-0.176136895711362</v>
@@ -9268,7 +9259,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C466" t="n">
-        <v>0.06289577312838997</v>
+        <v>0.06289577312839549</v>
       </c>
       <c r="D466" t="n">
         <v>0.2045521181498457</v>
@@ -9303,7 +9294,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C468" t="n">
-        <v>-0.06500762828807777</v>
+        <v>-0.06500762828807743</v>
       </c>
       <c r="D468" t="n">
         <v>-0.05891923419340984</v>
@@ -9322,7 +9313,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C469" t="n">
-        <v>0.1615251129074846</v>
+        <v>0.1615251129074898</v>
       </c>
       <c r="D469" t="n">
         <v>0.1546072060428024</v>
@@ -9341,7 +9332,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C470" t="n">
-        <v>0.06821258445880973</v>
+        <v>0.06821258445880699</v>
       </c>
       <c r="D470" t="n">
         <v>0.8347174571031349</v>
@@ -9360,7 +9351,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C471" t="n">
-        <v>0.3021486819401405</v>
+        <v>0.3021486819401369</v>
       </c>
       <c r="D471" t="n">
         <v>0.4501937415727693</v>
@@ -9379,7 +9370,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C472" t="n">
-        <v>-0.212127357296238</v>
+        <v>-0.2121273572962378</v>
       </c>
       <c r="D472" t="n">
         <v>-0.1740488957690764</v>
@@ -9398,7 +9389,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C473" t="n">
-        <v>0.01491003427756648</v>
+        <v>0.01491003427757314</v>
       </c>
       <c r="D473" t="n">
         <v>0.01569686726876013</v>
@@ -9417,7 +9408,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C474" t="n">
-        <v>-0.01881377453254016</v>
+        <v>-0.01881377453253951</v>
       </c>
       <c r="D474" t="n">
         <v>-0.08319272398656863</v>
@@ -9436,7 +9427,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C475" t="n">
-        <v>-0.04311213667773008</v>
+        <v>-0.04311213667773074</v>
       </c>
       <c r="D475" t="n">
         <v>-0.1048392105954966</v>
@@ -9455,7 +9446,7 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C476" t="n">
-        <v>-0.2628082603609758</v>
+        <v>-0.2628082603609754</v>
       </c>
       <c r="D476" t="n">
         <v>-0.2435186489939163</v>
@@ -9474,7 +9465,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C477" t="n">
-        <v>-0.2144062848065252</v>
+        <v>-0.2144062848065254</v>
       </c>
       <c r="D477" t="n">
         <v>-0.1116019064706742</v>
@@ -9493,7 +9484,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C478" t="n">
-        <v>-0.1670564914642539</v>
+        <v>-0.1670564914642536</v>
       </c>
       <c r="D478" t="n">
         <v>-0.1640208302102232</v>
@@ -9512,7 +9503,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C479" t="n">
-        <v>0.03389318944550843</v>
+        <v>0.03389318944550561</v>
       </c>
       <c r="D479" t="n">
         <v>0.2523392428208392</v>
@@ -9531,7 +9522,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C480" t="n">
-        <v>-0.2133841267578084</v>
+        <v>-0.213384126757808</v>
       </c>
       <c r="D480" t="n">
         <v>-0.2092149762132565</v>
@@ -9550,7 +9541,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C481" t="n">
-        <v>0.001202245936981868</v>
+        <v>0.001202245936979307</v>
       </c>
       <c r="D481" t="n">
         <v>0.06381020886768134</v>
@@ -9569,7 +9560,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C482" t="n">
-        <v>-0.08612279693620001</v>
+        <v>-0.08612279693620034</v>
       </c>
       <c r="D482" t="n">
         <v>0.1691411837375468</v>
@@ -9588,7 +9579,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C483" t="n">
-        <v>-0.1105583751476987</v>
+        <v>-0.110558375147699</v>
       </c>
       <c r="D483" t="n">
         <v>-0.1776438044257503</v>
@@ -9607,7 +9598,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C484" t="n">
-        <v>0.02007270323208668</v>
+        <v>0.02007270323208384</v>
       </c>
       <c r="D484" t="n">
         <v>-0.08839826805144979</v>
@@ -9626,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>-0.0911137686447817</v>
+        <v>-0.09111376864478153</v>
       </c>
       <c r="D485" t="n">
         <v>-0.008087036223853953</v>
@@ -9645,7 +9636,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C486" t="n">
-        <v>-0.06138758750866596</v>
+        <v>-0.06138758750866578</v>
       </c>
       <c r="D486" t="n">
         <v>0.1087955646647343</v>
@@ -9664,7 +9655,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C487" t="n">
-        <v>-0.07029173969905919</v>
+        <v>-0.07029173969905869</v>
       </c>
       <c r="D487" t="n">
         <v>0.2466336999227826</v>
@@ -9683,7 +9674,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C488" t="n">
-        <v>0.01756152782073918</v>
+        <v>0.01756152782074203</v>
       </c>
       <c r="D488" t="n">
         <v>-0.3873192854255892</v>
@@ -9702,7 +9693,7 @@
         <v>-0.3040061868900999</v>
       </c>
       <c r="C489" t="n">
-        <v>-0.2970406168239943</v>
+        <v>-0.2970406168239941</v>
       </c>
       <c r="D489" t="n">
         <v>-0.2764850506344555</v>
@@ -9721,7 +9712,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C490" t="n">
-        <v>-0.07290997155873742</v>
+        <v>-0.07290997155873775</v>
       </c>
       <c r="D490" t="n">
         <v>0.04299456519679759</v>
@@ -9740,7 +9731,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C491" t="n">
-        <v>-0.08726859414655269</v>
+        <v>-0.08726859414655253</v>
       </c>
       <c r="D491" t="n">
         <v>-0.1535830404118343</v>
@@ -9759,7 +9750,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C492" t="n">
-        <v>0.03029768759627288</v>
+        <v>0.0302976875962735</v>
       </c>
       <c r="D492" t="n">
         <v>0.1674558849332707</v>
@@ -9797,7 +9788,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C494" t="n">
-        <v>0.1222585134084511</v>
+        <v>0.1222585134084549</v>
       </c>
       <c r="D494" t="n">
         <v>-0.03637929572512654</v>
@@ -9835,7 +9826,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C496" t="n">
-        <v>-0.05099403498693279</v>
+        <v>-0.05099403498693296</v>
       </c>
       <c r="D496" t="n">
         <v>0.02392205442437548</v>
@@ -9873,7 +9864,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C498" t="n">
-        <v>0.01947888422336375</v>
+        <v>0.0194788842233628</v>
       </c>
       <c r="D498" t="n">
         <v>-0.1254882340004967</v>
@@ -9892,7 +9883,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C499" t="n">
-        <v>-0.001718435347288047</v>
+        <v>-0.001718435347287727</v>
       </c>
       <c r="D499" t="n">
         <v>-0.01553648998864965</v>
@@ -9930,7 +9921,7 @@
         <v>-0.3584539709124763</v>
       </c>
       <c r="C501" t="n">
-        <v>-0.3558308803749827</v>
+        <v>-0.3558308803749831</v>
       </c>
       <c r="D501" t="n">
         <v>0.08132766324405151</v>
@@ -9949,7 +9940,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C502" t="n">
-        <v>-0.1144073970729755</v>
+        <v>-0.1144073970729758</v>
       </c>
       <c r="D502" t="n">
         <v>-0.07853233751842342</v>
@@ -9968,7 +9959,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C503" t="n">
-        <v>0.06774811278636056</v>
+        <v>0.06774811278636668</v>
       </c>
       <c r="D503" t="n">
         <v>0.2045995972791644</v>
@@ -9987,7 +9978,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C504" t="n">
-        <v>0.01490509569219945</v>
+        <v>0.01490509569219691</v>
       </c>
       <c r="D504" t="n">
         <v>0.05749558131228445</v>
@@ -10006,7 +9997,7 @@
         <v>-0.3219280948873623</v>
       </c>
       <c r="C505" t="n">
-        <v>-0.111750551246568</v>
+        <v>-0.1117505512465687</v>
       </c>
       <c r="D505" t="n">
         <v>-0.3571826194845222</v>
@@ -10025,7 +10016,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C506" t="n">
-        <v>-0.1183278141419584</v>
+        <v>-0.1183278141419587</v>
       </c>
       <c r="D506" t="n">
         <v>-0.0131495339138737</v>
@@ -10044,7 +10035,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C507" t="n">
-        <v>0.01022082739489808</v>
+        <v>0.01022082739489522</v>
       </c>
       <c r="D507" t="n">
         <v>-0.1470536865383257</v>
@@ -10063,7 +10054,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C508" t="n">
-        <v>-0.03064103525653736</v>
+        <v>-0.03064103525653687</v>
       </c>
       <c r="D508" t="n">
         <v>0.2014669539382417</v>
@@ -10082,7 +10073,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C509" t="n">
-        <v>0.05677920031646149</v>
+        <v>0.05677920031646426</v>
       </c>
       <c r="D509" t="n">
         <v>-0.14603930288099</v>
@@ -10101,7 +10092,7 @@
         <v>0.2016338611696504</v>
       </c>
       <c r="C510" t="n">
-        <v>0.03490864105274986</v>
+        <v>0.03490864105274798</v>
       </c>
       <c r="D510" t="n">
         <v>0.176132314741944</v>
@@ -10139,7 +10130,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C512" t="n">
-        <v>-0.07019749290130221</v>
+        <v>-0.07019749290130305</v>
       </c>
       <c r="D512" t="n">
         <v>-0.0876816246023321</v>
@@ -10158,7 +10149,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C513" t="n">
-        <v>0.1481273907254496</v>
+        <v>0.148127390725449</v>
       </c>
       <c r="D513" t="n">
         <v>-0.04038586110676816</v>
@@ -10177,7 +10168,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C514" t="n">
-        <v>0.03202513940668705</v>
+        <v>0.03202513940668925</v>
       </c>
       <c r="D514" t="n">
         <v>-0.7549207949805041</v>
@@ -10196,7 +10187,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C515" t="n">
-        <v>-0.1313315672085147</v>
+        <v>-0.131331567208515</v>
       </c>
       <c r="D515" t="n">
         <v>-0.05913520256212376</v>
@@ -10215,7 +10206,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C516" t="n">
-        <v>-0.09329317549432076</v>
+        <v>-0.09329317549432041</v>
       </c>
       <c r="D516" t="n">
         <v>-0.07336863626217643</v>
@@ -10234,7 +10225,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C517" t="n">
-        <v>-0.01458847777542253</v>
+        <v>-0.01458847777542237</v>
       </c>
       <c r="D517" t="n">
         <v>-0.114312409179424</v>
@@ -10253,7 +10244,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C518" t="n">
-        <v>-0.1457284156528773</v>
+        <v>-0.1457284156528766</v>
       </c>
       <c r="D518" t="n">
         <v>-0.09884813402848487</v>
@@ -10272,7 +10263,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C519" t="n">
-        <v>0.09229807611448181</v>
+        <v>0.0922980761144758</v>
       </c>
       <c r="D519" t="n">
         <v>0.3914668630289156</v>
@@ -10291,7 +10282,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C520" t="n">
-        <v>-0.06750186255750017</v>
+        <v>-0.06750186255750067</v>
       </c>
       <c r="D520" t="n">
         <v>-0.5086045577396073</v>
@@ -10310,7 +10301,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C521" t="n">
-        <v>-0.07149104237096986</v>
+        <v>-0.0714910423709702</v>
       </c>
       <c r="D521" t="n">
         <v>0.01472977806455701</v>
@@ -10329,7 +10320,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C522" t="n">
-        <v>-0.09923388453159458</v>
+        <v>-0.09923388453159528</v>
       </c>
       <c r="D522" t="n">
         <v>0.09144181754827979</v>
@@ -10348,7 +10339,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C523" t="n">
-        <v>-0.5252135929534008</v>
+        <v>-0.5252135929534014</v>
       </c>
       <c r="D523" t="n">
         <v>0.01535271046795099</v>
@@ -10367,7 +10358,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C524" t="n">
-        <v>-0.6235173889051326</v>
+        <v>-0.6235173889051324</v>
       </c>
       <c r="D524" t="n">
         <v>-0.3736831825203936</v>
@@ -10386,7 +10377,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C525" t="n">
-        <v>-0.1232944918656237</v>
+        <v>-0.1232944918656241</v>
       </c>
       <c r="D525" t="n">
         <v>0.1586853124196375</v>
@@ -10405,7 +10396,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C526" t="n">
-        <v>0.05241524394695529</v>
+        <v>0.05241524394695158</v>
       </c>
       <c r="D526" t="n">
         <v>0.3217781699696708</v>
@@ -10424,7 +10415,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C527" t="n">
-        <v>-0.1104970080016803</v>
+        <v>-0.1104970080016804</v>
       </c>
       <c r="D527" t="n">
         <v>-0.004990418717105034</v>
@@ -10443,14 +10434,11 @@
         <v>-0.2515387669959644</v>
       </c>
       <c r="C528" t="n">
-        <v>-0.5905363455457481</v>
+        <v>-0.5905363455457483</v>
       </c>
       <c r="D528" t="n">
         <v>-0.2965415591628857</v>
       </c>
-      <c r="E528" t="n">
-        <v>-0.01693760806583073</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -10462,7 +10450,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C529" t="n">
-        <v>-0.0860287069941168</v>
+        <v>-0.08602870699411645</v>
       </c>
       <c r="D529" t="n">
         <v>0.7268280293719782</v>
@@ -10481,7 +10469,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C530" t="n">
-        <v>-0.2598423936388007</v>
+        <v>-0.2598423936387999</v>
       </c>
       <c r="D530" t="n">
         <v>-0.1914274095097113</v>
@@ -10519,7 +10507,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C532" t="n">
-        <v>-0.5096831151365464</v>
+        <v>-0.5096831151365455</v>
       </c>
       <c r="D532" t="n">
         <v>-0.09924890501413819</v>
@@ -10538,7 +10526,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C533" t="n">
-        <v>-0.0185062960799606</v>
+        <v>-0.01850629607996092</v>
       </c>
       <c r="D533" t="n">
         <v>-0.1608309637543525</v>
@@ -10557,7 +10545,7 @@
         <v>-0.5777669993169522</v>
       </c>
       <c r="C534" t="n">
-        <v>-0.4713999418979564</v>
+        <v>-0.4713999418979561</v>
       </c>
       <c r="D534" t="n">
         <v>-0.4570431124557213</v>
@@ -10576,7 +10564,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C535" t="n">
-        <v>-0.003491315275513187</v>
+        <v>-0.003491315275513026</v>
       </c>
       <c r="D535" t="n">
         <v>0.08361348545911232</v>
@@ -10614,7 +10602,7 @@
         <v>-0.3770696490798233</v>
       </c>
       <c r="C537" t="n">
-        <v>-0.2645065437583559</v>
+        <v>-0.2645065437583567</v>
       </c>
       <c r="E537" t="n">
         <v>-0.2612947486319847</v>
@@ -10630,7 +10618,7 @@
         <v>0.2387868595871165</v>
       </c>
       <c r="C538" t="n">
-        <v>0.1204926423144611</v>
+        <v>0.1204926423144649</v>
       </c>
       <c r="D538" t="n">
         <v>0.1543633709344971</v>
@@ -10649,7 +10637,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C539" t="n">
-        <v>0.2114228038742246</v>
+        <v>0.2114228038742235</v>
       </c>
       <c r="D539" t="n">
         <v>-0.01575101246947676</v>
@@ -10668,7 +10656,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C540" t="n">
-        <v>0.1013203284919841</v>
+        <v>0.1013203284919784</v>
       </c>
       <c r="D540" t="n">
         <v>-0.06924396095095239</v>
@@ -10687,7 +10675,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C541" t="n">
-        <v>-0.02345767979857873</v>
+        <v>-0.02345767979857922</v>
       </c>
       <c r="D541" t="n">
         <v>0.007801767177974086</v>
@@ -10706,7 +10694,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C542" t="n">
-        <v>-0.03573537644009249</v>
+        <v>-0.03573537644009216</v>
       </c>
       <c r="D542" t="n">
         <v>-0.2388413561803223</v>
@@ -10725,7 +10713,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C543" t="n">
-        <v>0.004250665419217944</v>
+        <v>0.004250665419217625</v>
       </c>
       <c r="D543" t="n">
         <v>-0.1912795698210037</v>
@@ -10744,7 +10732,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C544" t="n">
-        <v>-0.04712087946864892</v>
+        <v>-0.04712087946864826</v>
       </c>
       <c r="D544" t="n">
         <v>-0.6492380114096978</v>
@@ -10782,7 +10770,7 @@
         <v>-0.3219280948873623</v>
       </c>
       <c r="C546" t="n">
-        <v>-0.2564717320178908</v>
+        <v>-0.2564717320178906</v>
       </c>
       <c r="D546" t="n">
         <v>-0.1568142166950372</v>
@@ -10801,7 +10789,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C547" t="n">
-        <v>0.2152023948375738</v>
+        <v>0.2152023948375708</v>
       </c>
       <c r="D547" t="n">
         <v>0.4651636715813836</v>
@@ -10820,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>0.01894423814805398</v>
+        <v>0.01894423814805746</v>
       </c>
       <c r="D548" t="n">
         <v>-0.01945247777441811</v>
@@ -10855,7 +10843,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C550" t="n">
-        <v>-0.08011421742237501</v>
+        <v>-0.08011421742237534</v>
       </c>
       <c r="D550" t="n">
         <v>-0.2119843999073587</v>
@@ -10893,7 +10881,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C552" t="n">
-        <v>-0.2107437339261372</v>
+        <v>-0.2107437339261378</v>
       </c>
       <c r="D552" t="n">
         <v>0.1788722532840847</v>
@@ -10912,7 +10900,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C553" t="n">
-        <v>-0.2028247178078217</v>
+        <v>-0.2028247178078219</v>
       </c>
       <c r="D553" t="n">
         <v>-0.2793030689165997</v>
@@ -10931,7 +10919,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C554" t="n">
-        <v>0.01474937727419041</v>
+        <v>0.0147493772741958</v>
       </c>
       <c r="D554" t="n">
         <v>0.1173627111006131</v>
@@ -10950,7 +10938,7 @@
         <v>-0.4739311883324124</v>
       </c>
       <c r="C555" t="n">
-        <v>-0.4202254671435223</v>
+        <v>-0.4202254671435225</v>
       </c>
       <c r="D555" t="n">
         <v>-0.3565258010288917</v>
@@ -10988,7 +10976,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C557" t="n">
-        <v>-0.09358751899499877</v>
+        <v>-0.09358751899499894</v>
       </c>
       <c r="D557" t="n">
         <v>0.00326539064516251</v>
@@ -11007,7 +10995,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C558" t="n">
-        <v>0.08794518991572314</v>
+        <v>0.08794518991572284</v>
       </c>
       <c r="D558" t="n">
         <v>-0.1029623826269067</v>
@@ -11026,7 +11014,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C559" t="n">
-        <v>0.08373477892312631</v>
+        <v>0.08373477892313114</v>
       </c>
       <c r="D559" t="n">
         <v>0.1657221945640076</v>
@@ -11045,7 +11033,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C560" t="n">
-        <v>0.01604387856185029</v>
+        <v>0.01604387856184459</v>
       </c>
       <c r="D560" t="n">
         <v>-0.05944815955369471</v>
@@ -11064,7 +11052,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C561" t="n">
-        <v>0.1565544647120685</v>
+        <v>0.1565544647120725</v>
       </c>
       <c r="D561" t="n">
         <v>0.03924185065814233</v>
@@ -11083,7 +11071,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C562" t="n">
-        <v>-0.07879504067497527</v>
+        <v>-0.07879504067497475</v>
       </c>
       <c r="D562" t="n">
         <v>-0.03652965578016097</v>
@@ -11102,7 +11090,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C563" t="n">
-        <v>-0.1011444370051424</v>
+        <v>-0.101144437005142</v>
       </c>
       <c r="D563" t="n">
         <v>0.2447315206085295</v>
@@ -11140,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>0.0005157701446420506</v>
+        <v>0.0005157701446436517</v>
       </c>
       <c r="D565" t="n">
         <v>0.1334472638206475</v>
@@ -11159,7 +11147,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C566" t="n">
-        <v>-0.04790128526656674</v>
+        <v>-0.04790128526656708</v>
       </c>
       <c r="D566" t="n">
         <v>-0.05774026217062282</v>
@@ -11178,7 +11166,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C567" t="n">
-        <v>-0.01365094316635353</v>
+        <v>-0.01365094316635401</v>
       </c>
       <c r="D567" t="n">
         <v>0.05816381599291426</v>
@@ -11197,7 +11185,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C568" t="n">
-        <v>-0.1683791266670827</v>
+        <v>-0.168379126667083</v>
       </c>
       <c r="D568" t="n">
         <v>-0.1184026680550312</v>
@@ -11216,7 +11204,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C569" t="n">
-        <v>0.06658461100533629</v>
+        <v>0.06658461100533171</v>
       </c>
       <c r="D569" t="n">
         <v>0.0392676796220847</v>
@@ -11235,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>-0.002930290689139521</v>
+        <v>-0.002930290689139842</v>
       </c>
       <c r="D570" t="n">
         <v>0.009762854695509179</v>
@@ -11254,7 +11242,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C571" t="n">
-        <v>0.03014743058462121</v>
+        <v>0.03014743058461745</v>
       </c>
       <c r="D571" t="n">
         <v>0.002458443270334185</v>
@@ -11273,7 +11261,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C572" t="n">
-        <v>-0.01661643785413107</v>
+        <v>-0.01661643785413042</v>
       </c>
       <c r="D572" t="n">
         <v>0.3385627215475357</v>
@@ -11292,7 +11280,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C573" t="n">
-        <v>-0.01702661520113159</v>
+        <v>-0.01702661520113224</v>
       </c>
       <c r="D573" t="n">
         <v>0.01653403842203663</v>
@@ -11311,7 +11299,7 @@
         <v>0.3895668117627256</v>
       </c>
       <c r="C574" t="n">
-        <v>0.1728193063911191</v>
+        <v>0.1728193063911222</v>
       </c>
       <c r="D574" t="n">
         <v>0.2090433111867299</v>
@@ -11330,7 +11318,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C575" t="n">
-        <v>-0.1586699198890014</v>
+        <v>-0.1586699198890013</v>
       </c>
       <c r="D575" t="n">
         <v>-0.09535531708874917</v>
@@ -11349,7 +11337,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C576" t="n">
-        <v>0.05471522216215222</v>
+        <v>0.05471522216215098</v>
       </c>
       <c r="D576" t="n">
         <v>0.1623248420881271</v>
@@ -11368,7 +11356,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C577" t="n">
-        <v>-0.1994552901683807</v>
+        <v>-0.1994552901683801</v>
       </c>
       <c r="D577" t="n">
         <v>0.5337326656555429</v>
@@ -11387,7 +11375,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C578" t="n">
-        <v>0.003695084348488154</v>
+        <v>0.003695084348491988</v>
       </c>
       <c r="D578" t="n">
         <v>-0.08715620289415989</v>
@@ -11406,7 +11394,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C579" t="n">
-        <v>-0.14561541523601</v>
+        <v>-0.1456154152360107</v>
       </c>
       <c r="D579" t="n">
         <v>-0.06767309868739138</v>
@@ -11425,7 +11413,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C580" t="n">
-        <v>-0.05489175849607206</v>
+        <v>-0.05489175849607173</v>
       </c>
       <c r="D580" t="n">
         <v>-0.00799883586407282</v>
@@ -11444,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>-0.06351498290880309</v>
+        <v>-0.06351498290880275</v>
       </c>
       <c r="D581" t="n">
         <v>-0.006957984061758645</v>
@@ -11463,7 +11451,7 @@
         <v>-0.234465253637023</v>
       </c>
       <c r="C582" t="n">
-        <v>-0.2362739393914909</v>
+        <v>-0.2362739393914912</v>
       </c>
       <c r="D582" t="n">
         <v>-0.1829275777205518</v>
@@ -11482,7 +11470,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C583" t="n">
-        <v>-0.2063290277562465</v>
+        <v>-0.2063290277562467</v>
       </c>
       <c r="D583" t="n">
         <v>-0.2158416438215664</v>
@@ -11501,7 +11489,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C584" t="n">
-        <v>0.008294949060155729</v>
+        <v>0.008294949060150951</v>
       </c>
       <c r="D584" t="n">
         <v>0.1384869223669045</v>
@@ -11520,7 +11508,7 @@
         <v>0.3219280948873623</v>
       </c>
       <c r="C585" t="n">
-        <v>0.2001889434117426</v>
+        <v>0.2001889434117431</v>
       </c>
       <c r="D585" t="n">
         <v>0.09969811427323727</v>
@@ -11539,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>-0.003922935707241644</v>
+        <v>-0.003922935707242286</v>
       </c>
       <c r="D586" t="n">
         <v>-0.002256679746782336</v>
@@ -11577,7 +11565,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C588" t="n">
-        <v>0.0004619334179671307</v>
+        <v>0.0004619334179668105</v>
       </c>
       <c r="D588" t="n">
         <v>-0.02710581782216746</v>
@@ -11615,7 +11603,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C590" t="n">
-        <v>-0.1688704858224733</v>
+        <v>-0.1688704858224738</v>
       </c>
       <c r="D590" t="n">
         <v>-0.1732315526100079</v>
@@ -11634,7 +11622,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C591" t="n">
-        <v>-0.06657323754772887</v>
+        <v>-0.06657323754772954</v>
       </c>
       <c r="D591" t="n">
         <v>0.2140852097260666</v>
@@ -11653,7 +11641,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C592" t="n">
-        <v>-0.08928182603135104</v>
+        <v>-0.08928182603135139</v>
       </c>
       <c r="D592" t="n">
         <v>-0.07823647566175108</v>
@@ -11672,7 +11660,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C593" t="n">
-        <v>-0.1172632402240731</v>
+        <v>-0.1172632402240724</v>
       </c>
       <c r="D593" t="n">
         <v>0.2647218558170041</v>
@@ -11691,7 +11679,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C594" t="n">
-        <v>-0.05403631918165515</v>
+        <v>-0.05403631918165581</v>
       </c>
       <c r="D594" t="n">
         <v>0.2197563418465895</v>
@@ -11710,7 +11698,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C595" t="n">
-        <v>-0.006652860068361402</v>
+        <v>-0.006652860068362046</v>
       </c>
       <c r="D595" t="n">
         <v>0.02343395852249926</v>
@@ -11729,7 +11717,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C596" t="n">
-        <v>-0.01705206555894426</v>
+        <v>-0.01705206555894362</v>
       </c>
       <c r="D596" t="n">
         <v>0.04588530414565738</v>
@@ -11748,7 +11736,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C597" t="n">
-        <v>-0.1916094207677083</v>
+        <v>-0.1916094207677088</v>
       </c>
       <c r="D597" t="n">
         <v>-0.2381517869789276</v>
@@ -11767,7 +11755,7 @@
         <v>-0.4540316308947075</v>
       </c>
       <c r="C598" t="n">
-        <v>-0.2974556935339846</v>
+        <v>-0.2974556935339852</v>
       </c>
       <c r="D598" t="n">
         <v>-0.2236943836722849</v>
@@ -11786,7 +11774,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C599" t="n">
-        <v>0.006563085838164963</v>
+        <v>0.006563085838166558</v>
       </c>
       <c r="D599" t="n">
         <v>0.06279247909951446</v>
@@ -11805,7 +11793,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C600" t="n">
-        <v>-0.148727887796283</v>
+        <v>-0.1487278877962835</v>
       </c>
       <c r="D600" t="n">
         <v>0.2076959327398199</v>
@@ -11824,7 +11812,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C601" t="n">
-        <v>0.3384248242679036</v>
+        <v>0.3384248242679054</v>
       </c>
       <c r="D601" t="n">
         <v>0.3255201638861572</v>
@@ -11843,7 +11831,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C602" t="n">
-        <v>-0.001834455273188619</v>
+        <v>-0.00183445527318894</v>
       </c>
       <c r="D602" t="n">
         <v>0.03161395808094737</v>
@@ -11862,14 +11850,11 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C603" t="n">
-        <v>-0.2711435345308917</v>
+        <v>-0.2711435345308922</v>
       </c>
       <c r="D603" t="n">
         <v>0.668501919467738</v>
       </c>
-      <c r="E603" t="n">
-        <v>-0.03579028443908861</v>
-      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -11881,7 +11866,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C604" t="n">
-        <v>-0.002277074456524535</v>
+        <v>-0.002277074456524054</v>
       </c>
       <c r="D604" t="n">
         <v>-0.005252130039536534</v>
@@ -11900,7 +11885,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C605" t="n">
-        <v>-0.02392482833717603</v>
+        <v>-0.02392482833717636</v>
       </c>
       <c r="D605" t="n">
         <v>0.00924348873426287</v>
@@ -11919,7 +11904,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C606" t="n">
-        <v>-0.1194320764846494</v>
+        <v>-0.1194320764846492</v>
       </c>
       <c r="D606" t="n">
         <v>0.02824094180103804</v>
@@ -11938,7 +11923,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C607" t="n">
-        <v>-1.716409449562512</v>
+        <v>-1.71640944956251</v>
       </c>
       <c r="D607" t="n">
         <v>-0.2357714797451399</v>
@@ -11954,7 +11939,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C608" t="n">
-        <v>-0.01894516858409082</v>
+        <v>-0.01894516858409179</v>
       </c>
       <c r="D608" t="n">
         <v>0.1673418417476749</v>
@@ -11973,7 +11958,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C609" t="n">
-        <v>-0.07938825319021615</v>
+        <v>-0.07938825319021599</v>
       </c>
       <c r="D609" t="n">
         <v>0.3337597830240346</v>
@@ -11992,7 +11977,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C610" t="n">
-        <v>-0.03541311465803924</v>
+        <v>-0.03541311465803908</v>
       </c>
       <c r="D610" t="n">
         <v>-0.02030762461969183</v>
@@ -12011,7 +11996,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C611" t="n">
-        <v>0.01093336354467346</v>
+        <v>0.01093336354466996</v>
       </c>
       <c r="D611" t="n">
         <v>-0.09739579066673859</v>
@@ -12030,7 +12015,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C612" t="n">
-        <v>-0.08428069239641342</v>
+        <v>-0.0842806923964141</v>
       </c>
       <c r="D612" t="n">
         <v>-0.168186002596938</v>
@@ -12106,7 +12091,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C616" t="n">
-        <v>-0.1409252871598263</v>
+        <v>-0.1409252871598266</v>
       </c>
       <c r="D616" t="n">
         <v>0.1284480465864063</v>
@@ -12125,7 +12110,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C617" t="n">
-        <v>0.14764924502747</v>
+        <v>0.1476492450274639</v>
       </c>
       <c r="D617" t="n">
         <v>0.159140479474789</v>
@@ -12144,7 +12129,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C618" t="n">
-        <v>-0.1581195386924388</v>
+        <v>-0.1581195386924386</v>
       </c>
       <c r="D618" t="n">
         <v>0.02438652550673729</v>
@@ -12163,7 +12148,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C619" t="n">
-        <v>-0.09340300921307693</v>
+        <v>-0.09340300921307658</v>
       </c>
       <c r="D619" t="n">
         <v>-0.1614185153931741</v>
@@ -12182,7 +12167,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C620" t="n">
-        <v>-0.003775200491780103</v>
+        <v>-0.003775200491780424</v>
       </c>
       <c r="D620" t="n">
         <v>0.5642031606008482</v>
@@ -12201,7 +12186,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C621" t="n">
-        <v>-0.02777496924124285</v>
+        <v>-0.02777496924124219</v>
       </c>
       <c r="D621" t="n">
         <v>-0.01117275320170038</v>
@@ -12239,7 +12224,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C623" t="n">
-        <v>-0.05876834863800481</v>
+        <v>-0.05876834863800564</v>
       </c>
       <c r="D623" t="n">
         <v>-0.0615588174200077</v>
@@ -12258,7 +12243,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C624" t="n">
-        <v>0.03912310942429752</v>
+        <v>0.03912310942429846</v>
       </c>
       <c r="D624" t="n">
         <v>-0.366586174236234</v>
@@ -12277,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>0.1200932722717703</v>
+        <v>0.1200932722717724</v>
       </c>
       <c r="D625" t="n">
         <v>0.178152158259551</v>
@@ -12296,7 +12281,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C626" t="n">
-        <v>-0.08466424871640982</v>
+        <v>-0.08466424871640947</v>
       </c>
       <c r="D626" t="n">
         <v>0.02904057536487459</v>
@@ -12315,7 +12300,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C627" t="n">
-        <v>0.1082413941548991</v>
+        <v>0.1082413941548979</v>
       </c>
       <c r="D627" t="n">
         <v>-0.3343738940114319</v>
@@ -12334,7 +12319,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C628" t="n">
-        <v>0.1428374623975781</v>
+        <v>0.1428374623975792</v>
       </c>
       <c r="D628" t="n">
         <v>0.5260715791890823</v>
@@ -12353,7 +12338,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C629" t="n">
-        <v>-0.1753922894533297</v>
+        <v>-0.1753922894533299</v>
       </c>
       <c r="D629" t="n">
         <v>-0.2156292026314355</v>
@@ -12372,7 +12357,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C630" t="n">
-        <v>0.06121890398797887</v>
+        <v>0.06121890398797488</v>
       </c>
       <c r="D630" t="n">
         <v>-0.06849314381823371</v>
@@ -12391,7 +12376,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C631" t="n">
-        <v>-0.08655385459870968</v>
+        <v>-0.08655385459871036</v>
       </c>
       <c r="D631" t="n">
         <v>0.075509050487767</v>
@@ -12410,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>-0.05738048405758869</v>
+        <v>-0.05738048405758785</v>
       </c>
       <c r="D632" t="n">
         <v>-0.2467454456896317</v>
@@ -12448,7 +12433,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C634" t="n">
-        <v>-0.1091769188446329</v>
+        <v>-0.1091769188446322</v>
       </c>
       <c r="D634" t="n">
         <v>-0.02250369713690255</v>
@@ -12505,7 +12490,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C637" t="n">
-        <v>0.1631980568346635</v>
+        <v>0.1631980568346683</v>
       </c>
       <c r="D637" t="n">
         <v>0.3910812471016174</v>
@@ -12524,7 +12509,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C638" t="n">
-        <v>-0.02023406639144859</v>
+        <v>-0.02023406639144843</v>
       </c>
       <c r="D638" t="n">
         <v>0.005225028865203468</v>
@@ -12543,7 +12528,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C639" t="n">
-        <v>-0.1591504057326166</v>
+        <v>-0.1591504057326173</v>
       </c>
       <c r="D639" t="n">
         <v>0.0376149300197483</v>
@@ -12562,7 +12547,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C640" t="n">
-        <v>0.05019324089967347</v>
+        <v>0.05019324089966976</v>
       </c>
       <c r="D640" t="n">
         <v>-0.02003492441716652</v>
@@ -12581,7 +12566,7 @@
         <v>0.1763227726404629</v>
       </c>
       <c r="C641" t="n">
-        <v>0.05981200902588373</v>
+        <v>0.05981200902588649</v>
       </c>
       <c r="D641" t="n">
         <v>0.1783478717944537</v>
@@ -12600,7 +12585,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C642" t="n">
-        <v>0.01866289743612924</v>
+        <v>0.01866289743613146</v>
       </c>
       <c r="D642" t="n">
         <v>0.6628610516895573</v>
@@ -12619,7 +12604,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C643" t="n">
-        <v>0.0246822876145774</v>
+        <v>0.02468228761457078</v>
       </c>
       <c r="D643" t="n">
         <v>0.4400320798715704</v>
@@ -12638,7 +12623,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C644" t="n">
-        <v>-0.1189150102731339</v>
+        <v>-0.1189150102731342</v>
       </c>
       <c r="D644" t="n">
         <v>-0.03860368781325791</v>
@@ -12657,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>-0.04198559591536023</v>
+        <v>-0.04198559591536089</v>
       </c>
       <c r="D645" t="n">
         <v>0.0003097904809781512</v>
@@ -12676,7 +12661,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C646" t="n">
-        <v>0.04209657722163265</v>
+        <v>0.04209657722163918</v>
       </c>
       <c r="D646" t="n">
         <v>0.8452157416729871</v>
@@ -12695,7 +12680,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C647" t="n">
-        <v>0.06128277652444973</v>
+        <v>0.06128277652445648</v>
       </c>
       <c r="D647" t="n">
         <v>0.159643773306103</v>
@@ -12714,7 +12699,7 @@
         <v>0.3334237337251918</v>
       </c>
       <c r="C648" t="n">
-        <v>-1.423647252821721</v>
+        <v>-1.42364725282172</v>
       </c>
       <c r="D648" t="n">
         <v>-0.4870985908656007</v>
@@ -12733,7 +12718,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C649" t="n">
-        <v>0.05402624226436763</v>
+        <v>0.05402624226437472</v>
       </c>
       <c r="D649" t="n">
         <v>0.06577416825898962</v>
@@ -12752,7 +12737,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C650" t="n">
-        <v>-0.08150045505339737</v>
+        <v>-0.08150045505339788</v>
       </c>
       <c r="D650" t="n">
         <v>-0.09074934227977817</v>
@@ -12771,7 +12756,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C651" t="n">
-        <v>-0.0562748344003858</v>
+        <v>-0.05627483440038614</v>
       </c>
       <c r="D651" t="n">
         <v>-0.06458891700899354</v>
@@ -12790,7 +12775,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C652" t="n">
-        <v>-0.138679900292396</v>
+        <v>-0.1386799002923968</v>
       </c>
       <c r="D652" t="n">
         <v>-0.1634697783154171</v>
@@ -12809,7 +12794,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C653" t="n">
-        <v>-0.03775954557489199</v>
+        <v>-0.03775954557489133</v>
       </c>
       <c r="D653" t="n">
         <v>-0.02234984936137177</v>
@@ -12828,7 +12813,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C654" t="n">
-        <v>0.3242907092871962</v>
+        <v>0.3242907092871949</v>
       </c>
       <c r="D654" t="n">
         <v>0.5614128800767328</v>
@@ -12847,7 +12832,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C655" t="n">
-        <v>-0.086917849417901</v>
+        <v>-0.08691784941790134</v>
       </c>
       <c r="D655" t="n">
         <v>-0.1269992485234682</v>
@@ -12866,7 +12851,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C656" t="n">
-        <v>0.1592623997744902</v>
+        <v>0.1592623997744954</v>
       </c>
       <c r="D656" t="n">
         <v>0.07266913838159555</v>
@@ -12904,7 +12889,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C658" t="n">
-        <v>0.04734321513682937</v>
+        <v>0.04734321513683526</v>
       </c>
       <c r="D658" t="n">
         <v>0.08902630974425035</v>
@@ -12923,7 +12908,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C659" t="n">
-        <v>0.008974426470054061</v>
+        <v>0.00897442647005788</v>
       </c>
       <c r="D659" t="n">
         <v>0.2960647477920187</v>
@@ -12942,7 +12927,7 @@
         <v>-0.1520030934450499</v>
       </c>
       <c r="C660" t="n">
-        <v>-0.293239055705884</v>
+        <v>-0.2932390557058837</v>
       </c>
       <c r="D660" t="n">
         <v>-0.1304299097232502</v>
@@ -12961,7 +12946,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C661" t="n">
-        <v>-0.1245150665367709</v>
+        <v>-0.1245150665367716</v>
       </c>
       <c r="D661" t="n">
         <v>-0.2435046424120084</v>
@@ -12980,7 +12965,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C662" t="n">
-        <v>-0.08378821616760332</v>
+        <v>-0.083788216167604</v>
       </c>
       <c r="D662" t="n">
         <v>0.07428238476773383</v>
@@ -12999,7 +12984,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C663" t="n">
-        <v>0.1863428701797708</v>
+        <v>0.1863428701797697</v>
       </c>
       <c r="D663" t="n">
         <v>0.3109832983712807</v>
@@ -13018,7 +13003,7 @@
         <v>-0.1360615495760284</v>
       </c>
       <c r="C664" t="n">
-        <v>-0.1312432972268956</v>
+        <v>-0.1312432972268953</v>
       </c>
       <c r="D664" t="n">
         <v>-0.07069614558212386</v>
@@ -13037,7 +13022,7 @@
         <v>-0.4150374992788438</v>
       </c>
       <c r="C665" t="n">
-        <v>-0.442527264084359</v>
+        <v>-0.4425272640843586</v>
       </c>
       <c r="D665" t="n">
         <v>-0.438823383698727</v>
@@ -13056,7 +13041,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C666" t="n">
-        <v>0.04789622150659565</v>
+        <v>0.04789622150659286</v>
       </c>
       <c r="D666" t="n">
         <v>0.2227590468771977</v>
@@ -13075,7 +13060,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C667" t="n">
-        <v>-0.04142984018683868</v>
+        <v>-0.04142984018683802</v>
       </c>
       <c r="D667" t="n">
         <v>-0.04572034918947476</v>
@@ -13094,7 +13079,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C668" t="n">
-        <v>0.005925618965467466</v>
+        <v>0.005925618965462999</v>
       </c>
       <c r="D668" t="n">
         <v>0.2370391173416113</v>
@@ -13113,7 +13098,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C669" t="n">
-        <v>0.08342411724770871</v>
+        <v>0.08342411724770719</v>
       </c>
       <c r="D669" t="n">
         <v>0.07301285837034729</v>
@@ -13132,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>-0.008115211556917091</v>
+        <v>-0.008115211556917737</v>
       </c>
       <c r="D670" t="n">
         <v>0.162533664475791</v>
@@ -13151,7 +13136,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C671" t="n">
-        <v>-0.03455825166536377</v>
+        <v>-0.03455825166536443</v>
       </c>
       <c r="D671" t="n">
         <v>0.05145167730509586</v>
@@ -13170,7 +13155,7 @@
         <v>0.2630344058337938</v>
       </c>
       <c r="C672" t="n">
-        <v>-0.1203986259638107</v>
+        <v>-0.1203986259638104</v>
       </c>
       <c r="D672" t="n">
         <v>-0.3233319587383548</v>
@@ -13189,7 +13174,7 @@
         <v>-0.2009126939259964</v>
       </c>
       <c r="C673" t="n">
-        <v>-0.2150607950972211</v>
+        <v>-0.215060795097221</v>
       </c>
       <c r="D673" t="n">
         <v>0.01452024197403752</v>
@@ -13208,7 +13193,7 @@
         <v>0.3673710656485294</v>
       </c>
       <c r="C674" t="n">
-        <v>0.2242967761371568</v>
+        <v>0.2242967761371614</v>
       </c>
       <c r="D674" t="n">
         <v>0.1998938327931069</v>
@@ -13227,7 +13212,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C675" t="n">
-        <v>-0.06450951526242886</v>
+        <v>-0.06450951526242919</v>
       </c>
       <c r="D675" t="n">
         <v>-0.1602523862034033</v>
@@ -13246,7 +13231,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C676" t="n">
-        <v>-0.02719377485757824</v>
+        <v>-0.02719377485757792</v>
       </c>
       <c r="D676" t="n">
         <v>0.1038945412246262</v>
@@ -13265,7 +13250,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C677" t="n">
-        <v>-0.06017765713935691</v>
+        <v>-0.06017765713935641</v>
       </c>
       <c r="D677" t="n">
         <v>0.1350064971125484</v>
@@ -13284,7 +13269,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C678" t="n">
-        <v>-0.08630528524836723</v>
+        <v>-0.08630528524836739</v>
       </c>
       <c r="D678" t="n">
         <v>-0.0205303195772113</v>
@@ -13322,7 +13307,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C680" t="n">
-        <v>-0.03977366873670023</v>
+        <v>-0.03977366873669989</v>
       </c>
       <c r="D680" t="n">
         <v>0.7193003622884288</v>
@@ -13341,7 +13326,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C681" t="n">
-        <v>-0.2928810282409866</v>
+        <v>-0.2928810282409874</v>
       </c>
       <c r="D681" t="n">
         <v>-0.1396895992660732</v>
@@ -13379,7 +13364,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C683" t="n">
-        <v>-0.1909911868988579</v>
+        <v>-0.1909911868988588</v>
       </c>
       <c r="D683" t="n">
         <v>-0.05090243500032841</v>
@@ -13398,7 +13383,7 @@
         <v>0.2141248053528473</v>
       </c>
       <c r="C684" t="n">
-        <v>0.05020874063257013</v>
+        <v>0.05020874063257354</v>
       </c>
       <c r="D684" t="n">
         <v>0.1177899586232446</v>
@@ -13417,7 +13402,7 @@
         <v>-0.1844245711374274</v>
       </c>
       <c r="C685" t="n">
-        <v>-0.1012909941467716</v>
+        <v>-0.1012909941467708</v>
       </c>
       <c r="D685" t="n">
         <v>-0.02942401477251067</v>
@@ -13436,7 +13421,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C686" t="n">
-        <v>-0.220808864612897</v>
+        <v>-0.2208088646128962</v>
       </c>
       <c r="D686" t="n">
         <v>-0.04797435711344755</v>
@@ -13455,7 +13440,7 @@
         <v>-0.1046973786666932</v>
       </c>
       <c r="C687" t="n">
-        <v>0.2917557874282247</v>
+        <v>0.2917557874282278</v>
       </c>
       <c r="D687" t="n">
         <v>0.2242615540548848</v>
@@ -13474,7 +13459,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C688" t="n">
-        <v>-0.02934971763175455</v>
+        <v>-0.0293497176317552</v>
       </c>
       <c r="D688" t="n">
         <v>-0.08805583246771795</v>
@@ -13493,7 +13478,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C689" t="n">
-        <v>0.003159808445611624</v>
+        <v>0.003159808445607469</v>
       </c>
       <c r="D689" t="n">
         <v>0.1176566377202805</v>
@@ -13512,7 +13497,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C690" t="n">
-        <v>-0.05792109842674205</v>
+        <v>-0.05792109842674172</v>
       </c>
       <c r="D690" t="n">
         <v>-0.09600128383685555</v>
@@ -13531,7 +13516,7 @@
         <v>-0.5563933485243852</v>
       </c>
       <c r="C691" t="n">
-        <v>-0.4577306115377149</v>
+        <v>-0.4577306115377151</v>
       </c>
       <c r="D691" t="n">
         <v>-0.3637315801455935</v>
@@ -13566,7 +13551,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C693" t="n">
-        <v>0.1121169434437271</v>
+        <v>0.1121169434437253</v>
       </c>
       <c r="D693" t="n">
         <v>0.09264736661414803</v>
@@ -13585,7 +13570,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C694" t="n">
-        <v>0.124651927106912</v>
+        <v>0.1246519271069131</v>
       </c>
       <c r="D694" t="n">
         <v>0.1615295089116485</v>
@@ -13604,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>0.2909832445318102</v>
+        <v>0.2909832445318105</v>
       </c>
       <c r="D695" t="n">
         <v>-0.3084322200714666</v>
@@ -13623,7 +13608,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C696" t="n">
-        <v>0.04325647056797192</v>
+        <v>0.04325647056796633</v>
       </c>
       <c r="D696" t="n">
         <v>0.04264408790530196</v>
@@ -13642,7 +13627,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C697" t="n">
-        <v>-0.008070448184385536</v>
+        <v>-0.008070448184385052</v>
       </c>
       <c r="D697" t="n">
         <v>-0.0004717635100049622</v>
@@ -13661,7 +13646,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C698" t="n">
-        <v>-0.05864298177326287</v>
+        <v>-0.0586429817732632</v>
       </c>
       <c r="D698" t="n">
         <v>0.02950425047021999</v>
@@ -13680,7 +13665,7 @@
         <v>-0.4150374992788438</v>
       </c>
       <c r="C699" t="n">
-        <v>-0.4629023400667612</v>
+        <v>-0.4629023400667603</v>
       </c>
       <c r="D699" t="n">
         <v>-0.1660465485690199</v>
@@ -13737,7 +13722,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C702" t="n">
-        <v>-0.2506544418123514</v>
+        <v>-0.2506544418123518</v>
       </c>
       <c r="D702" t="n">
         <v>-0.1812917241883524</v>
@@ -13756,7 +13741,7 @@
         <v>0.08406426478847456</v>
       </c>
       <c r="C703" t="n">
-        <v>0.02566438166848486</v>
+        <v>0.02566438166849179</v>
       </c>
       <c r="D703" t="n">
         <v>0.1405510586466585</v>
@@ -13775,7 +13760,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C704" t="n">
-        <v>0.02809842099227556</v>
+        <v>0.02809842099227776</v>
       </c>
       <c r="D704" t="n">
         <v>0.157147189913374</v>
@@ -13794,7 +13779,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C705" t="n">
-        <v>-0.03643557047239573</v>
+        <v>-0.03643557047239541</v>
       </c>
       <c r="D705" t="n">
         <v>0.03765498036359513</v>
@@ -13813,7 +13798,7 @@
         <v>0.4750848829487826</v>
       </c>
       <c r="C706" t="n">
-        <v>0.276740945319507</v>
+        <v>0.2767409453195033</v>
       </c>
       <c r="D706" t="n">
         <v>-0.4486868555831453</v>
@@ -13832,7 +13817,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C707" t="n">
-        <v>-0.2020345345047714</v>
+        <v>-0.202034534504772</v>
       </c>
       <c r="D707" t="n">
         <v>-0.2465953088633797</v>
@@ -13851,7 +13836,7 @@
         <v>0.1505596765753814</v>
       </c>
       <c r="C708" t="n">
-        <v>-0.05162598240992974</v>
+        <v>-0.0516259824099294</v>
       </c>
       <c r="D708" t="n">
         <v>-0.1276311544655211</v>
@@ -13870,7 +13855,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C709" t="n">
-        <v>-0.04680521345819739</v>
+        <v>-0.04680521345819706</v>
       </c>
       <c r="D709" t="n">
         <v>0.05347586801030817</v>
@@ -13946,7 +13931,7 @@
         <v>-0.02914634565951651</v>
       </c>
       <c r="C713" t="n">
-        <v>0.01437328292701572</v>
+        <v>0.01437328292701794</v>
       </c>
       <c r="D713" t="n">
         <v>0.2486365666128592</v>
@@ -13965,7 +13950,7 @@
         <v>0.09761079662642233</v>
       </c>
       <c r="C714" t="n">
-        <v>0.054170845845638</v>
+        <v>0.05417084584564479</v>
       </c>
       <c r="D714" t="n">
         <v>0.1252446778065547</v>
@@ -14003,7 +13988,7 @@
         <v>0.1243281350022018</v>
       </c>
       <c r="C716" t="n">
-        <v>0.127608957037634</v>
+        <v>0.1276089570376375</v>
       </c>
       <c r="D716" t="n">
         <v>0.1940583097867295</v>
@@ -14022,7 +14007,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C717" t="n">
-        <v>-0.1253230458750592</v>
+        <v>-0.1253230458750589</v>
       </c>
       <c r="D717" t="n">
         <v>-0.08311727140906332</v>
@@ -14041,7 +14026,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C718" t="n">
-        <v>0.07288277675741099</v>
+        <v>0.07288277675741404</v>
       </c>
       <c r="D718" t="n">
         <v>0.1214736165359123</v>
@@ -14060,7 +14045,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C719" t="n">
-        <v>-0.09786202729242842</v>
+        <v>-0.09786202729242774</v>
       </c>
       <c r="D719" t="n">
         <v>0.1700870762960973</v>
@@ -14079,7 +14064,7 @@
         <v>-0.2175914350726268</v>
       </c>
       <c r="C720" t="n">
-        <v>-0.3529409371446224</v>
+        <v>-0.3529409371446228</v>
       </c>
       <c r="D720" t="n">
         <v>-0.3501694863411888</v>
@@ -14098,7 +14083,7 @@
         <v>0.1890338243900169</v>
       </c>
       <c r="C721" t="n">
-        <v>0.1527596520079781</v>
+        <v>0.1527596520079793</v>
       </c>
       <c r="D721" t="n">
         <v>0.08012252262747135</v>
@@ -14117,7 +14102,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C722" t="n">
-        <v>-0.04378786854443527</v>
+        <v>-0.04378786854443559</v>
       </c>
       <c r="D722" t="n">
         <v>-0.05017764861312897</v>
@@ -14136,7 +14121,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C723" t="n">
-        <v>-0.05478827375331128</v>
+        <v>-0.05478827375331095</v>
       </c>
       <c r="D723" t="n">
         <v>-0.09427210606625661</v>
@@ -14155,7 +14140,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C724" t="n">
-        <v>-0.08053988670161615</v>
+        <v>-0.08053988670161548</v>
       </c>
       <c r="D724" t="n">
         <v>-0.101710373799534</v>
@@ -14193,7 +14178,7 @@
         <v>0.1634987322828796</v>
       </c>
       <c r="C726" t="n">
-        <v>-0.1598452192794859</v>
+        <v>-0.1598452192794857</v>
       </c>
       <c r="D726" t="n">
         <v>-0.04403673560344456</v>
@@ -14212,7 +14197,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C727" t="n">
-        <v>0.05025202958015833</v>
+        <v>0.05025202958015586</v>
       </c>
       <c r="D727" t="n">
         <v>0.9039011742077757</v>
@@ -14231,7 +14216,7 @@
         <v>-0.01449956969511509</v>
       </c>
       <c r="C728" t="n">
-        <v>0.00389229986672878</v>
+        <v>0.003892299866726863</v>
       </c>
       <c r="D728" t="n">
         <v>-0.2520679454904594</v>
@@ -14250,7 +14235,7 @@
         <v>0.04264433740849372</v>
       </c>
       <c r="C729" t="n">
-        <v>0.0176891869330028</v>
+        <v>0.01768918693299647</v>
       </c>
       <c r="D729" t="n">
         <v>0.03607241226299685</v>
@@ -14269,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="C730" t="n">
-        <v>0.01675213210730065</v>
+        <v>0.01675213210730318</v>
       </c>
       <c r="D730" t="n">
         <v>0.122921934777627</v>
@@ -14288,7 +14273,7 @@
         <v>-0.3400754415976217</v>
       </c>
       <c r="C731" t="n">
-        <v>-0.1202329539665082</v>
+        <v>-0.1202329539665075</v>
       </c>
       <c r="D731" t="n">
         <v>0.5220598514508122</v>
@@ -14342,7 +14327,7 @@
         <v>0.3561438102252754</v>
       </c>
       <c r="C734" t="n">
-        <v>0.1498347586069778</v>
+        <v>0.1498347586069743</v>
       </c>
       <c r="D734" t="n">
         <v>0.2437048034133598</v>
@@ -14361,7 +14346,7 @@
         <v>0.2265085298086797</v>
       </c>
       <c r="C735" t="n">
-        <v>0.2983665142162804</v>
+        <v>0.2983665142162752</v>
       </c>
       <c r="D735" t="n">
         <v>0.1304497080319797</v>
@@ -14380,7 +14365,7 @@
         <v>0.02856915219677092</v>
       </c>
       <c r="C736" t="n">
-        <v>0.03690359953062909</v>
+        <v>0.03690359953062628</v>
       </c>
       <c r="D736" t="n">
         <v>-0.0002700580544411172</v>
@@ -14399,7 +14384,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C737" t="n">
-        <v>-0.01094004496763108</v>
+        <v>-0.01094004496763141</v>
       </c>
       <c r="D737" t="n">
         <v>0.4552854837232914</v>
@@ -14418,7 +14403,7 @@
         <v>-0.05889368905356857</v>
       </c>
       <c r="C738" t="n">
-        <v>-0.1017462324523268</v>
+        <v>-0.1017462324523265</v>
       </c>
       <c r="D738" t="n">
         <v>-0.1467341603249781</v>
@@ -14456,7 +14441,7 @@
         <v>-0.1681227588083269</v>
       </c>
       <c r="C740" t="n">
-        <v>0.007434343439773146</v>
+        <v>0.007434343439777927</v>
       </c>
       <c r="D740" t="n">
         <v>-0.1331044536188874</v>
@@ -14475,7 +14460,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C741" t="n">
-        <v>-0.1566531109667176</v>
+        <v>-0.1566531109667183</v>
       </c>
       <c r="D741" t="n">
         <v>0.2387519239338848</v>
@@ -14494,7 +14479,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C742" t="n">
-        <v>0.05560111773946964</v>
+        <v>0.05560111773946286</v>
       </c>
       <c r="D742" t="n">
         <v>0.09325455363590548</v>
@@ -14529,7 +14514,7 @@
         <v>-0.2688167584278</v>
       </c>
       <c r="C744" t="n">
-        <v>-0.183449572060909</v>
+        <v>-0.1834495720609093</v>
       </c>
       <c r="D744" t="n">
         <v>-0.1017298673635246</v>
@@ -14548,7 +14533,7 @@
         <v>0.01435529297707005</v>
       </c>
       <c r="C745" t="n">
-        <v>-0.02046590570425051</v>
+        <v>-0.02046590570425116</v>
       </c>
       <c r="D745" t="n">
         <v>-0.1177910619573497</v>
@@ -14567,7 +14552,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C746" t="n">
-        <v>0.002028977570223285</v>
+        <v>0.002028977570216248</v>
       </c>
       <c r="D746" t="n">
         <v>0.03521314570844435</v>
@@ -14586,7 +14571,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C747" t="n">
-        <v>-0.04303904410266306</v>
+        <v>-0.04303904410266273</v>
       </c>
       <c r="D747" t="n">
         <v>-0.1450903394473437</v>
@@ -14605,7 +14590,7 @@
         <v>-0.07400058144377693</v>
       </c>
       <c r="C748" t="n">
-        <v>-0.1736461232543276</v>
+        <v>-0.173646123254328</v>
       </c>
       <c r="D748" t="n">
         <v>-0.1435483381668389</v>
@@ -14624,7 +14609,7 @@
         <v>-0.08926733809708741</v>
       </c>
       <c r="C749" t="n">
-        <v>-0.02688005836517458</v>
+        <v>-0.02688005836517474</v>
       </c>
       <c r="D749" t="n">
         <v>0.4878733498381138</v>
@@ -14643,7 +14628,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C750" t="n">
-        <v>-0.152121800977853</v>
+        <v>-0.1521218009778532</v>
       </c>
       <c r="D750" t="n">
         <v>-0.06504226283411725</v>
@@ -14662,7 +14647,7 @@
         <v>0.070389327891398</v>
       </c>
       <c r="C751" t="n">
-        <v>0.1625212335721947</v>
+        <v>0.1625212335721941</v>
       </c>
       <c r="D751" t="n">
         <v>0.3992666124694113</v>
@@ -14681,7 +14666,7 @@
         <v>-0.04394334758759706</v>
       </c>
       <c r="C752" t="n">
-        <v>-0.1093911187651407</v>
+        <v>-0.1093911187651402</v>
       </c>
       <c r="D752" t="n">
         <v>-0.1086615878938444</v>
@@ -14700,7 +14685,7 @@
         <v>0.1110313123887439</v>
       </c>
       <c r="C753" t="n">
-        <v>0.0977206852949446</v>
+        <v>0.0977206852949392</v>
       </c>
       <c r="D753" t="n">
         <v>0.1113754705224739</v>
@@ -14738,7 +14723,7 @@
         <v>-0.5145731728297583</v>
       </c>
       <c r="C755" t="n">
-        <v>-0.3992867612155006</v>
+        <v>-0.3992867612155004</v>
       </c>
       <c r="D755" t="n">
         <v>-0.4352861977510708</v>
@@ -14757,7 +14742,7 @@
         <v>0.05658352836636751</v>
       </c>
       <c r="C756" t="n">
-        <v>0.08841735074023242</v>
+        <v>0.08841735074023392</v>
       </c>
       <c r="D756" t="n">
         <v>0.1116392032492923</v>
@@ -14814,7 +14799,7 @@
         <v>0.3448284969974412</v>
       </c>
       <c r="C759" t="n">
-        <v>0.1834694156985319</v>
+        <v>0.18346941569853</v>
       </c>
       <c r="D759" t="n">
         <v>0.2782555720068156</v>
@@ -14833,7 +14818,7 @@
         <v>-0.1202942337177118</v>
       </c>
       <c r="C760" t="n">
-        <v>-0.06466125058010433</v>
+        <v>-0.064661250580104</v>
       </c>
       <c r="D760" t="n">
         <v>-0.1175931910365727</v>
@@ -14852,7 +14837,7 @@
         <v>0.137503523749935</v>
       </c>
       <c r="C761" t="n">
-        <v>0.1340121047726933</v>
+        <v>0.1340121047726976</v>
       </c>
       <c r="D761" t="n">
         <v>0.05968573288145061</v>
@@ -14955,7 +14940,7 @@
         <v>-4.321928094887363</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.440386773904707</v>
+        <v>-4.440386773904703</v>
       </c>
       <c r="D4" t="n">
         <v>-4.416738285063568</v>
@@ -14974,7 +14959,7 @@
         <v>-4.321928094887363</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.211384031617804</v>
+        <v>-4.211384031617802</v>
       </c>
       <c r="D5" t="n">
         <v>-4.206553330931262</v>
@@ -15031,7 +15016,7 @@
         <v>-4.321928094887363</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.409775803362801</v>
+        <v>-4.409775803362797</v>
       </c>
       <c r="D8" t="n">
         <v>-4.332375257022539</v>
@@ -15050,7 +15035,7 @@
         <v>-3.643856189774725</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.914420085457385</v>
+        <v>-3.914420085457383</v>
       </c>
       <c r="D9" t="n">
         <v>-3.762355938132219</v>
@@ -15134,7 +15119,7 @@
         <v>-0.9159357352115255</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.09622105036329656</v>
+        <v>-0.09622105036329588</v>
       </c>
       <c r="D3" t="n">
         <v>-0.07187361225623756</v>
@@ -15153,7 +15138,7 @@
         <v>-0.888968687611256</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7849696547152696</v>
+        <v>-0.7849696547152688</v>
       </c>
       <c r="D4" t="n">
         <v>-1.093448797175757</v>
@@ -15172,7 +15157,7 @@
         <v>-1.120294233717712</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.164183137915007</v>
+        <v>-1.164183137915008</v>
       </c>
       <c r="D5" t="n">
         <v>-1.075141532348586</v>
@@ -15191,7 +15176,7 @@
         <v>-0.9714308478032291</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9554616039235014</v>
+        <v>-0.9554616039235008</v>
       </c>
       <c r="D6" t="n">
         <v>-0.7250935115683005</v>
@@ -15210,7 +15195,7 @@
         <v>-0.6438561897747247</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4698791995391439</v>
+        <v>-0.4698791995391434</v>
       </c>
       <c r="D7" t="n">
         <v>-0.3250449216942262</v>
@@ -15286,7 +15271,7 @@
         <v>-0.8109661756099832</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.138275016124824</v>
+        <v>-2.138275016124821</v>
       </c>
       <c r="D11" t="n">
         <v>-0.2367162316922449</v>
@@ -15343,7 +15328,7 @@
         <v>-0.9159357352115255</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8034182308977597</v>
+        <v>-0.80341823089776</v>
       </c>
       <c r="D14" t="n">
         <v>-1.034261149814512</v>
@@ -15362,7 +15347,7 @@
         <v>-1.15200309344505</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.251305013874904</v>
+        <v>-1.251305013874903</v>
       </c>
       <c r="D15" t="n">
         <v>-3.834060926404196</v>
@@ -15381,7 +15366,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.688941822673567</v>
+        <v>-0.6889418226735672</v>
       </c>
       <c r="D16" t="n">
         <v>-0.9743825177777682</v>
@@ -15400,7 +15385,7 @@
         <v>-0.9159357352115255</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.175024507217677</v>
+        <v>-1.175024507217678</v>
       </c>
       <c r="D17" t="n">
         <v>-0.9877907329086126</v>
@@ -15419,7 +15404,7 @@
         <v>-1.434402824145775</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.719788646830337</v>
+        <v>-1.719788646830338</v>
       </c>
       <c r="D18" t="n">
         <v>-1.770552335597612</v>
@@ -15438,7 +15423,7 @@
         <v>-0.862496476250065</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.897901812381264</v>
+        <v>-0.8979018123812631</v>
       </c>
       <c r="D19" t="n">
         <v>-0.9789527872575342</v>
@@ -15503,7 +15488,7 @@
         <v>-1.888968687611256</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.013724004916049</v>
+        <v>-2.013724004916048</v>
       </c>
       <c r="D2" t="n">
         <v>-1.967552208719604</v>
@@ -15522,7 +15507,7 @@
         <v>-1.943416471633632</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.172131757036936</v>
+        <v>-2.172131757036939</v>
       </c>
       <c r="D3" t="n">
         <v>-1.803875195906624</v>
@@ -15541,7 +15526,7 @@
         <v>-2.184424571137427</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.5918471383087</v>
+        <v>-2.591847138308701</v>
       </c>
       <c r="D4" t="n">
         <v>-2.612194204128809</v>
@@ -15579,7 +15564,7 @@
         <v>-3.058893689053569</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.777377723976017</v>
+        <v>-3.777377723976015</v>
       </c>
       <c r="D6" t="n">
         <v>-3.306931631069512</v>
@@ -15598,7 +15583,7 @@
         <v>-1.689659879387849</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.873232461505618</v>
+        <v>-1.873232461505617</v>
       </c>
       <c r="D7" t="n">
         <v>-1.791582909496755</v>
@@ -15636,7 +15621,7 @@
         <v>-2.184424571137427</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.482419226816339</v>
+        <v>-1.48241922681634</v>
       </c>
       <c r="D9" t="n">
         <v>-2.940415431575666</v>
@@ -15655,7 +15640,7 @@
         <v>-2.058893689053569</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.067837296370686</v>
+        <v>-2.067837296370687</v>
       </c>
       <c r="D10" t="n">
         <v>-1.588962476202961</v>
@@ -15674,7 +15659,7 @@
         <v>-2.251538766995965</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.287157646312781</v>
+        <v>-2.287157646312779</v>
       </c>
       <c r="D11" t="n">
         <v>-1.68458836439988</v>
@@ -15693,7 +15678,7 @@
         <v>-2.120294233717712</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.386557175113954</v>
+        <v>-1.386557175113956</v>
       </c>
       <c r="D12" t="n">
         <v>-0.5552460998366436</v>
@@ -15712,7 +15697,7 @@
         <v>-1.943416471633632</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.997329898397852</v>
+        <v>-1.997329898397854</v>
       </c>
       <c r="D13" t="n">
         <v>-1.926407162637896</v>
@@ -15731,7 +15716,7 @@
         <v>-1.785875194647153</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.081811648712871</v>
+        <v>-2.081811648712869</v>
       </c>
       <c r="D14" t="n">
         <v>-2.013444333074713</v>
@@ -15815,7 +15800,7 @@
         <v>4.074676686294496</v>
       </c>
       <c r="C2" t="n">
-        <v>4.117712482702493</v>
+        <v>4.11771248270249</v>
       </c>
       <c r="D2" t="n">
         <v>4.130552095600621</v>
@@ -15834,7 +15819,7 @@
         <v>3.921245888585589</v>
       </c>
       <c r="C3" t="n">
-        <v>4.045743283274161</v>
+        <v>4.045743283274162</v>
       </c>
       <c r="D3" t="n">
         <v>3.915939338415485</v>
@@ -15853,7 +15838,7 @@
         <v>3.864928972289788</v>
       </c>
       <c r="C4" t="n">
-        <v>4.258135934299935</v>
+        <v>4.258135934299936</v>
       </c>
       <c r="D4" t="n">
         <v>4.098722798973509</v>
@@ -15872,7 +15857,7 @@
         <v>3.654206377944292</v>
       </c>
       <c r="C5" t="n">
-        <v>3.908616379597384</v>
+        <v>3.908616379597382</v>
       </c>
       <c r="D5" t="n">
         <v>3.882025901695839</v>
@@ -15891,7 +15876,7 @@
         <v>3.203201156316611</v>
       </c>
       <c r="C6" t="n">
-        <v>3.612711336048045</v>
+        <v>3.61271133604805</v>
       </c>
       <c r="D6" t="n">
         <v>3.666083376824848</v>
@@ -15929,7 +15914,7 @@
         <v>3.907852071845964</v>
       </c>
       <c r="C8" t="n">
-        <v>3.993041764452903</v>
+        <v>3.993041764452899</v>
       </c>
       <c r="D8" t="n">
         <v>4.188153084152023</v>
@@ -15948,7 +15933,7 @@
         <v>3.283921772307617</v>
       </c>
       <c r="C9" t="n">
-        <v>3.809010449384239</v>
+        <v>3.809010449384238</v>
       </c>
       <c r="D9" t="n">
         <v>3.725269039033575</v>
@@ -15967,7 +15952,7 @@
         <v>4.489286022625876</v>
       </c>
       <c r="C10" t="n">
-        <v>4.562014262952204</v>
+        <v>4.562014262952205</v>
       </c>
       <c r="D10" t="n">
         <v>4.297013233922876</v>
@@ -16032,7 +16017,7 @@
         <v>0.8318772411916731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8069838451544126</v>
+        <v>0.806983845154416</v>
       </c>
       <c r="D2" t="n">
         <v>-0.1749245119415122</v>
@@ -16051,7 +16036,7 @@
         <v>1.207892851641333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1288784834802584</v>
+        <v>0.1288784834802557</v>
       </c>
       <c r="D3" t="n">
         <v>0.05267901625985177</v>
@@ -16070,7 +16055,7 @@
         <v>0.9335726382610239</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.783689494231695</v>
+        <v>-1.783689494231694</v>
       </c>
       <c r="D4" t="n">
         <v>-1.057252086083907</v>
@@ -16089,7 +16074,7 @@
         <v>0.7907720378619999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8330668099225754</v>
+        <v>0.8330668099225731</v>
       </c>
       <c r="D5" t="n">
         <v>1.083018351496054</v>
@@ -16108,7 +16093,7 @@
         <v>0.7570232465074596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8733058934176707</v>
+        <v>0.8733058934176718</v>
       </c>
       <c r="D6" t="n">
         <v>0.8920424742992394</v>
@@ -16127,7 +16112,7 @@
         <v>0.4854268271702417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3332158137147935</v>
+        <v>0.3332158137147985</v>
       </c>
       <c r="D7" t="n">
         <v>0.5763803626607105</v>
@@ -16146,7 +16131,7 @@
         <v>0.8073549220576041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4128664396011825</v>
+        <v>0.4128664396011847</v>
       </c>
       <c r="D8" t="n">
         <v>0.9049649183666267</v>
@@ -16165,7 +16150,7 @@
         <v>0.8718436485093178</v>
       </c>
       <c r="C9" t="n">
-        <v>1.105188045753938</v>
+        <v>1.105188045753936</v>
       </c>
       <c r="D9" t="n">
         <v>0.843072768187051</v>
@@ -16184,7 +16169,7 @@
         <v>1.01435529297707</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1702913735999969</v>
+        <v>-0.1702913735999965</v>
       </c>
       <c r="D10" t="n">
         <v>0.1019885000873916</v>
@@ -16203,7 +16188,7 @@
         <v>0.7824085649273732</v>
       </c>
       <c r="C11" t="n">
-        <v>0.783569136902269</v>
+        <v>0.7835691369022727</v>
       </c>
       <c r="D11" t="n">
         <v>0.720619600495967</v>
@@ -16222,7 +16207,7 @@
         <v>0.903038270112912</v>
       </c>
       <c r="C12" t="n">
-        <v>0.981862003982706</v>
+        <v>0.9818620039827042</v>
       </c>
       <c r="D12" t="n">
         <v>0.9276006645102413</v>
@@ -16241,7 +16226,7 @@
         <v>0.9927684307689242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.926862252925697</v>
+        <v>0.9268622529256971</v>
       </c>
       <c r="D13" t="n">
         <v>0.9185190209718634</v>
@@ -16260,7 +16245,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.107341553239682</v>
+        <v>1.107341553239683</v>
       </c>
       <c r="D14" t="n">
         <v>1.048568850614842</v>
@@ -16279,7 +16264,7 @@
         <v>0.7570232465074596</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8056506158453552</v>
+        <v>0.8056506158453547</v>
       </c>
       <c r="D15" t="n">
         <v>0.9080963726492779</v>
@@ -16298,7 +16283,7 @@
         <v>1.021479727410451</v>
       </c>
       <c r="C16" t="n">
-        <v>1.022919862389961</v>
+        <v>1.022919862389963</v>
       </c>
       <c r="D16" t="n">
         <v>0.8477621146310862</v>
@@ -16317,7 +16302,7 @@
         <v>1.144046369616707</v>
       </c>
       <c r="C17" t="n">
-        <v>1.057957972427778</v>
+        <v>1.05795797242778</v>
       </c>
       <c r="D17" t="n">
         <v>1.140262772268797</v>
@@ -16401,7 +16386,7 @@
         <v>1.778208576398088</v>
       </c>
       <c r="C3" t="n">
-        <v>1.860947454387556</v>
+        <v>1.860947454387555</v>
       </c>
       <c r="D3" t="n">
         <v>2.045410776288437</v>
@@ -16420,7 +16405,7 @@
         <v>2.163498732282879</v>
       </c>
       <c r="C4" t="n">
-        <v>2.126077093856058</v>
+        <v>2.126077093856059</v>
       </c>
       <c r="D4" t="n">
         <v>2.041602716866008</v>
@@ -16439,7 +16424,7 @@
         <v>2.070389327891398</v>
       </c>
       <c r="C5" t="n">
-        <v>2.086726960060761</v>
+        <v>2.086726960060763</v>
       </c>
       <c r="D5" t="n">
         <v>2.101347919738161</v>
@@ -16458,7 +16443,7 @@
         <v>2.100977647724821</v>
       </c>
       <c r="C6" t="n">
-        <v>2.131920911274416</v>
+        <v>2.131920911274415</v>
       </c>
       <c r="D6" t="n">
         <v>2.139906668946252</v>
@@ -16496,7 +16481,7 @@
         <v>1.541019153133559</v>
       </c>
       <c r="C8" t="n">
-        <v>1.617096996988206</v>
+        <v>1.617096996988205</v>
       </c>
       <c r="D8" t="n">
         <v>0.7056622940075448</v>
@@ -16515,7 +16500,7 @@
         <v>1.879705766282288</v>
       </c>
       <c r="C9" t="n">
-        <v>2.13363553231756</v>
+        <v>2.133635532317558</v>
       </c>
       <c r="D9" t="n">
         <v>1.790464950877996</v>
@@ -16553,7 +16538,7 @@
         <v>1.879705766282288</v>
       </c>
       <c r="C11" t="n">
-        <v>2.051825317571501</v>
+        <v>2.051825317571499</v>
       </c>
       <c r="D11" t="n">
         <v>2.182365918149435</v>
@@ -16572,7 +16557,7 @@
         <v>1.769771739249448</v>
       </c>
       <c r="C12" t="n">
-        <v>1.854621256632164</v>
+        <v>1.854621256632163</v>
       </c>
       <c r="D12" t="n">
         <v>1.847113268265846</v>
